--- a/backend/fixtures/code.xlsx
+++ b/backend/fixtures/code.xlsx
@@ -1622,7 +1622,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1685,7 +1685,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/backend/fixtures/code.xlsx
+++ b/backend/fixtures/code.xlsx
@@ -8,35 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goodnight\Documents\project\Nouveau dossier\Commune\backend\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4D1F5B-D912-4E1D-B588-3EFC9C93C202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C25AE98-0A94-4824-80C8-2825B0AE7785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="code banque" sheetId="1" r:id="rId1"/>
-    <sheet name="code forme juridique" sheetId="2" r:id="rId2"/>
-    <sheet name="code geographique" sheetId="3" r:id="rId3"/>
-    <sheet name="proces verbaux" sheetId="4" r:id="rId4"/>
-    <sheet name="operateur telephonique" sheetId="5" r:id="rId5"/>
-    <sheet name="obligation fiscal" sheetId="6" r:id="rId6"/>
-    <sheet name="code impot" sheetId="7" r:id="rId7"/>
-    <sheet name="date cloture" sheetId="8" r:id="rId8"/>
-    <sheet name="periodicite" sheetId="9" r:id="rId9"/>
-    <sheet name="code activite" sheetId="10" r:id="rId10"/>
-    <sheet name="code periodicite" sheetId="11" r:id="rId11"/>
-    <sheet name="numero budget" sheetId="12" r:id="rId12"/>
-    <sheet name="affectation budgetaire" sheetId="13" r:id="rId13"/>
-    <sheet name="grands impot" sheetId="14" r:id="rId14"/>
-    <sheet name="chef d_action" sheetId="15" r:id="rId15"/>
-    <sheet name="type prevision" sheetId="16" r:id="rId16"/>
-    <sheet name="jour ferie" sheetId="17" r:id="rId17"/>
+    <sheet name="date echeance" sheetId="19" r:id="rId2"/>
+    <sheet name="revenus salariaux" sheetId="20" r:id="rId3"/>
+    <sheet name="code forme juridique" sheetId="2" r:id="rId4"/>
+    <sheet name="code geographique" sheetId="3" r:id="rId5"/>
+    <sheet name="proces verbaux" sheetId="4" r:id="rId6"/>
+    <sheet name="operateur telephonique" sheetId="5" r:id="rId7"/>
+    <sheet name="obligation fiscal" sheetId="6" r:id="rId8"/>
+    <sheet name="code impot" sheetId="7" r:id="rId9"/>
+    <sheet name="date cloture" sheetId="8" r:id="rId10"/>
+    <sheet name="periodicite" sheetId="9" r:id="rId11"/>
+    <sheet name="code activite" sheetId="10" r:id="rId12"/>
+    <sheet name="code periodicite" sheetId="11" r:id="rId13"/>
+    <sheet name="numero budget" sheetId="12" r:id="rId14"/>
+    <sheet name="affectation budgetaire" sheetId="13" r:id="rId15"/>
+    <sheet name="grands impot" sheetId="14" r:id="rId16"/>
+    <sheet name="chef d_action" sheetId="15" r:id="rId17"/>
+    <sheet name="type prevision" sheetId="16" r:id="rId18"/>
+    <sheet name="jour ferie" sheetId="17" r:id="rId19"/>
+    <sheet name="prevision annuelle" sheetId="18" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="356">
   <si>
     <t>id</t>
   </si>
@@ -1059,6 +1062,51 @@
   </si>
   <si>
     <t>FERIE</t>
+  </si>
+  <si>
+    <t>16/01/2012</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>01/01/2012</t>
+  </si>
+  <si>
+    <t>19/09/2012</t>
+  </si>
+  <si>
+    <t>anne_exercice</t>
+  </si>
+  <si>
+    <t>montant</t>
+  </si>
+  <si>
+    <t>mois_exercice</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>date_debut_paiement</t>
+  </si>
+  <si>
+    <t>date_fin_paiement</t>
+  </si>
+  <si>
+    <t>paye_amende</t>
+  </si>
+  <si>
+    <t>paye_penalite</t>
+  </si>
+  <si>
+    <t>valeur_amende</t>
+  </si>
+  <si>
+    <t>taux_penalite</t>
+  </si>
+  <si>
+    <t>annee</t>
   </si>
 </sst>
 </file>
@@ -1094,8 +1142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1439,9 +1488,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1463,7 +1512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1474,7 +1523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1485,7 +1534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1496,7 +1545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1507,7 +1556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1518,7 +1567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1529,7 +1578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1540,7 +1589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1551,7 +1600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1562,7 +1611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1573,7 +1622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1584,7 +1633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1595,7 +1644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1606,7 +1655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1626,14 +1675,769 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:B6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" t="s">
+        <v>264</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E23" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" t="s">
+        <v>264</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" t="s">
+        <v>264</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" t="s">
+        <v>271</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1644,7 +2448,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1655,7 +2459,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1666,7 +2470,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1677,7 +2481,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -1688,7 +2492,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>51</v>
       </c>
@@ -1699,7 +2503,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23</v>
       </c>
@@ -1710,7 +2514,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
@@ -1721,7 +2525,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>29</v>
       </c>
@@ -1732,7 +2536,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
@@ -1743,7 +2547,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -1754,7 +2558,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>41</v>
       </c>
@@ -1765,7 +2569,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -1776,7 +2580,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>61</v>
       </c>
@@ -1787,7 +2591,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>62</v>
       </c>
@@ -1798,7 +2602,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>72</v>
       </c>
@@ -1809,7 +2613,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>72</v>
       </c>
@@ -1820,7 +2624,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>81</v>
       </c>
@@ -1831,7 +2635,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>91</v>
       </c>
@@ -1842,7 +2646,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>101</v>
       </c>
@@ -1853,7 +2657,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>111</v>
       </c>
@@ -1864,7 +2668,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>121</v>
       </c>
@@ -1875,7 +2679,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>131</v>
       </c>
@@ -1886,7 +2690,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>135</v>
       </c>
@@ -1897,7 +2701,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>141</v>
       </c>
@@ -1908,7 +2712,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>143</v>
       </c>
@@ -1919,7 +2723,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>151</v>
       </c>
@@ -1930,7 +2734,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>161</v>
       </c>
@@ -1941,7 +2745,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>162</v>
       </c>
@@ -1960,15 +2764,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1976,7 +2780,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1984,7 +2788,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1992,7 +2796,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2000,7 +2804,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2008,7 +2812,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2016,7 +2820,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2032,15 +2836,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -2048,7 +2852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2056,7 +2860,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2064,7 +2868,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2072,7 +2876,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2080,7 +2884,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2096,15 +2900,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>311</v>
       </c>
@@ -2118,7 +2922,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -2132,7 +2936,7 @@
         <v>7023</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2146,7 +2950,7 @@
         <v>7023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24</v>
       </c>
@@ -2160,7 +2964,7 @@
         <v>7231</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -2174,7 +2978,7 @@
         <v>7023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -2196,15 +3000,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>315</v>
       </c>
@@ -2212,7 +3016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2220,7 +3024,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2228,7 +3032,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2236,7 +3040,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2244,7 +3048,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2252,7 +3056,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2260,7 +3064,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2276,15 +3080,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2292,7 +3096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2308,44 +3112,593 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA4B112-1EAD-4CA6-876C-AAEF6355A789}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F5FF03-317C-483A-A81F-946A5DEACE23}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE96974-C822-4C43-9459-489837C0D492}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:C19" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>468</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>216</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:C6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>325</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>327</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>329</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2356,430 +3709,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>40909</v>
-      </c>
-      <c r="B2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>40934</v>
-      </c>
-      <c r="B3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>41008</v>
-      </c>
-      <c r="B4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>41171</v>
-      </c>
-      <c r="B5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:C5" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:C19" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>468</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>216</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:C6" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B4" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -2795,15 +3733,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2835,7 +3773,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2864,7 +3802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2887,7 +3825,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2913,7 +3851,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2939,7 +3877,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2965,7 +3903,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2994,7 +3932,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3020,7 +3958,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3043,7 +3981,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3066,7 +4004,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3092,7 +4030,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3118,7 +4056,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3144,7 +4082,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3170,7 +4108,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3198,15 +4136,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -3232,7 +4170,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3258,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3284,7 +4222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3310,7 +4248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3336,7 +4274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3362,7 +4300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3388,7 +4326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3414,7 +4352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3440,7 +4378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3463,7 +4401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3489,7 +4427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3512,7 +4450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3535,7 +4473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3561,7 +4499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3587,7 +4525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3613,7 +4551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3639,7 +4577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3665,7 +4603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21</v>
       </c>
@@ -3685,7 +4623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>22</v>
       </c>
@@ -3711,7 +4649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>23</v>
       </c>
@@ -3737,7 +4675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24</v>
       </c>
@@ -3763,7 +4701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>26</v>
       </c>
@@ -3786,7 +4724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>27</v>
       </c>
@@ -3806,7 +4744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>30</v>
       </c>
@@ -3826,7 +4764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
@@ -3846,7 +4784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
@@ -3872,7 +4810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>34</v>
       </c>
@@ -3895,7 +4833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>35</v>
       </c>
@@ -3918,7 +4856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>36</v>
       </c>
@@ -3938,7 +4876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>37</v>
       </c>
@@ -3961,7 +4899,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>38</v>
       </c>
@@ -3987,7 +4925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
@@ -4010,7 +4948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>40</v>
       </c>
@@ -4036,7 +4974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>41</v>
       </c>
@@ -4062,7 +5000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>42</v>
       </c>
@@ -4085,7 +5023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>43</v>
       </c>
@@ -4108,7 +5046,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>44</v>
       </c>
@@ -4134,7 +5072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>45</v>
       </c>
@@ -4163,759 +5101,4 @@
     <ignoredError sqref="A1:H39" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B6" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" t="s">
-        <v>247</v>
-      </c>
-      <c r="E10" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E11" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E12" t="s">
-        <v>252</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" t="s">
-        <v>254</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" t="s">
-        <v>255</v>
-      </c>
-      <c r="E14" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" t="s">
-        <v>257</v>
-      </c>
-      <c r="E15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" t="s">
-        <v>258</v>
-      </c>
-      <c r="E16" t="s">
-        <v>259</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" t="s">
-        <v>260</v>
-      </c>
-      <c r="E17" t="s">
-        <v>259</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" t="s">
-        <v>261</v>
-      </c>
-      <c r="E18" t="s">
-        <v>259</v>
-      </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
-      <c r="G18">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" t="s">
-        <v>259</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" t="s">
-        <v>263</v>
-      </c>
-      <c r="E20" t="s">
-        <v>264</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" t="s">
-        <v>266</v>
-      </c>
-      <c r="E22" t="s">
-        <v>264</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" t="s">
-        <v>267</v>
-      </c>
-      <c r="E23" t="s">
-        <v>264</v>
-      </c>
-      <c r="F23">
-        <v>7</v>
-      </c>
-      <c r="G23">
-        <v>8</v>
-      </c>
-      <c r="H23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" t="s">
-        <v>268</v>
-      </c>
-      <c r="E24" t="s">
-        <v>264</v>
-      </c>
-      <c r="F24">
-        <v>9</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" t="s">
-        <v>269</v>
-      </c>
-      <c r="E25" t="s">
-        <v>264</v>
-      </c>
-      <c r="F25">
-        <v>11</v>
-      </c>
-      <c r="G25">
-        <v>12</v>
-      </c>
-      <c r="H25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" t="s">
-        <v>270</v>
-      </c>
-      <c r="E26" t="s">
-        <v>271</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-</worksheet>
 </file>
--- a/backend/fixtures/code.xlsx
+++ b/backend/fixtures/code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goodnight\Documents\project\Nouveau dossier\Commune\backend\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A355346-F26D-4264-97CE-91F2FC6AB428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39347F4D-3A77-4AF3-A1B0-453BD0A924AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="337">
   <si>
     <t>id</t>
   </si>
@@ -1430,9 +1430,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1618,67 +1618,82 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B6" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1690,9 +1705,9 @@
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1718,7 +1733,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1744,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1770,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1796,7 +1811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1822,7 +1837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1848,7 +1863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1874,7 +1889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1900,7 +1915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1926,7 +1941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1949,7 +1964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1975,7 +1990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1998,7 +2013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2021,7 +2036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2047,7 +2062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2073,7 +2088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2099,7 +2114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2125,7 +2140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2151,7 +2166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21</v>
       </c>
@@ -2171,7 +2186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>22</v>
       </c>
@@ -2197,7 +2212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>23</v>
       </c>
@@ -2223,7 +2238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24</v>
       </c>
@@ -2249,7 +2264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>26</v>
       </c>
@@ -2272,7 +2287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>27</v>
       </c>
@@ -2292,7 +2307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>30</v>
       </c>
@@ -2312,7 +2327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
@@ -2332,7 +2347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
@@ -2358,7 +2373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>34</v>
       </c>
@@ -2381,7 +2396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>35</v>
       </c>
@@ -2404,7 +2419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>36</v>
       </c>
@@ -2424,7 +2439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>37</v>
       </c>
@@ -2447,7 +2462,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>38</v>
       </c>
@@ -2473,7 +2488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
@@ -2496,7 +2511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>40</v>
       </c>
@@ -2522,7 +2537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>41</v>
       </c>
@@ -2548,7 +2563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>42</v>
       </c>
@@ -2571,7 +2586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>43</v>
       </c>
@@ -2594,7 +2609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>44</v>
       </c>
@@ -2620,7 +2635,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>45</v>
       </c>
@@ -2659,9 +2674,9 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2687,7 +2702,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2713,7 +2728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2739,7 +2754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2765,7 +2780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2791,7 +2806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2817,7 +2832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2843,7 +2858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2869,7 +2884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2895,7 +2910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2921,7 +2936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2947,7 +2962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2973,7 +2988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2999,7 +3014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3025,7 +3040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3051,7 +3066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3077,7 +3092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3103,7 +3118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3129,7 +3144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3155,7 +3170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3181,7 +3196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3207,7 +3222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3233,7 +3248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3259,7 +3274,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3285,7 +3300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3311,7 +3326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3351,9 +3366,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3364,7 +3379,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3375,7 +3390,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3386,7 +3401,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3397,7 +3412,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -3408,7 +3423,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>51</v>
       </c>
@@ -3419,7 +3434,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23</v>
       </c>
@@ -3430,7 +3445,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
@@ -3441,7 +3456,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>29</v>
       </c>
@@ -3452,7 +3467,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
@@ -3463,7 +3478,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -3474,7 +3489,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>41</v>
       </c>
@@ -3485,7 +3500,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -3496,7 +3511,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>61</v>
       </c>
@@ -3507,7 +3522,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>62</v>
       </c>
@@ -3518,7 +3533,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>72</v>
       </c>
@@ -3529,7 +3544,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>72</v>
       </c>
@@ -3540,7 +3555,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>81</v>
       </c>
@@ -3551,7 +3566,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>91</v>
       </c>
@@ -3562,7 +3577,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>101</v>
       </c>
@@ -3573,7 +3588,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>111</v>
       </c>
@@ -3584,7 +3599,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>121</v>
       </c>
@@ -3595,7 +3610,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>131</v>
       </c>
@@ -3606,7 +3621,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>135</v>
       </c>
@@ -3617,7 +3632,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>141</v>
       </c>
@@ -3628,7 +3643,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>143</v>
       </c>
@@ -3639,7 +3654,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>151</v>
       </c>
@@ -3650,7 +3665,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>161</v>
       </c>
@@ -3661,7 +3676,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>162</v>
       </c>
@@ -3686,9 +3701,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -3696,7 +3711,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3704,7 +3719,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3712,7 +3727,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3720,7 +3735,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3728,7 +3743,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3750,9 +3765,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>299</v>
       </c>
@@ -3766,7 +3781,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -3780,7 +3795,7 @@
         <v>7023</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3794,7 +3809,7 @@
         <v>7023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24</v>
       </c>
@@ -3808,7 +3823,7 @@
         <v>7231</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -3822,7 +3837,7 @@
         <v>7023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -3850,9 +3865,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>303</v>
       </c>
@@ -3860,7 +3875,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3868,7 +3883,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3876,7 +3891,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3884,7 +3899,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3892,7 +3907,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3900,7 +3915,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3908,7 +3923,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3930,9 +3945,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3940,7 +3955,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3962,9 +3977,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3975,7 +3990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3986,7 +4001,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3997,7 +4012,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4022,9 +4037,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4038,7 +4053,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4052,7 +4067,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4066,7 +4081,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4080,7 +4095,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4108,9 +4123,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4144,9 +4159,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4180,9 +4195,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4216,9 +4231,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4229,7 +4244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4240,7 +4255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4251,7 +4266,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4262,7 +4277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4273,7 +4288,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4284,7 +4299,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4295,7 +4310,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4306,7 +4321,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4317,7 +4332,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4328,7 +4343,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4339,7 +4354,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4350,7 +4365,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4361,7 +4376,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4372,7 +4387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4383,7 +4398,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4394,7 +4409,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4405,7 +4420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4416,7 +4431,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4441,9 +4456,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4454,7 +4469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -4465,7 +4480,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4476,7 +4491,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4487,7 +4502,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -4512,9 +4527,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -4522,7 +4537,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>36</v>
       </c>
@@ -4530,7 +4545,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>37</v>
       </c>
@@ -4538,7 +4553,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>42</v>
       </c>
@@ -4560,9 +4575,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -4584,9 +4599,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -4597,7 +4612,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4608,7 +4623,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4619,7 +4634,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4630,7 +4645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4641,7 +4656,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4652,7 +4667,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4674,9 +4689,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4702,7 +4717,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4728,7 +4743,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4748,7 +4763,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4771,7 +4786,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4791,7 +4806,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4814,7 +4829,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4840,7 +4855,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4860,7 +4875,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4880,7 +4895,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4900,7 +4915,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4920,7 +4935,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4940,7 +4955,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4960,7 +4975,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4980,7 +4995,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>

--- a/backend/fixtures/code.xlsx
+++ b/backend/fixtures/code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goodnight\Documents\project\Nouveau dossier\Commune\backend\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39347F4D-3A77-4AF3-A1B0-453BD0A924AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F3DBF0-94D7-447E-97F5-8CB8E17CFC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="code banque" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="337">
   <si>
     <t>id</t>
   </si>
@@ -1620,7 +1620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1702,7 +1702,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3761,101 +3761,118 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>299</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>300</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>301</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>39</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>7023</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>60</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>24</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>99</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>7231</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>7023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>24</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>302</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:D6" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4157,7 +4174,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4229,7 +4248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4523,73 +4544,84 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
+      <c r="C1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B4" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/backend/fixtures/code.xlsx
+++ b/backend/fixtures/code.xlsx
@@ -1,7 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goodnight\Documents\project\Nouveau dossier\Commune\backend\fixtures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C0FCC5-0016-444D-8D71-D451C68A0758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" tabRatio="914" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="code banque" sheetId="1" r:id="rId1"/>
     <sheet name="date echeance" sheetId="2" r:id="rId2"/>
@@ -24,37 +34,1050 @@
     <sheet name="jour ferie" sheetId="19" r:id="rId19"/>
     <sheet name="prevision annuelle" sheetId="20" r:id="rId20"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="344">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>raison_social</t>
+  </si>
+  <si>
+    <t>nom_commercial</t>
+  </si>
+  <si>
+    <t>BANK OF AFRICA</t>
+  </si>
+  <si>
+    <t>BOA-BTM</t>
+  </si>
+  <si>
+    <t>BANKY FAMPANDROSOA</t>
+  </si>
+  <si>
+    <t>BFV-SG</t>
+  </si>
+  <si>
+    <t>BNI CREDIT LYONNAIS</t>
+  </si>
+  <si>
+    <t>BNI CL</t>
+  </si>
+  <si>
+    <t>BANQUE MALGACHE DE</t>
+  </si>
+  <si>
+    <t>BMOI</t>
+  </si>
+  <si>
+    <t>UNION COMMERCIAL BANK</t>
+  </si>
+  <si>
+    <t>UCB</t>
+  </si>
+  <si>
+    <t>BANQUE CENTRAL DE</t>
+  </si>
+  <si>
+    <t>BCRM</t>
+  </si>
+  <si>
+    <t>CHEQUE TRESOR</t>
+  </si>
+  <si>
+    <t>TRESOR</t>
+  </si>
+  <si>
+    <t>CENTRE DE CHEQUES P</t>
+  </si>
+  <si>
+    <t>CCP</t>
+  </si>
+  <si>
+    <t>SBM</t>
+  </si>
+  <si>
+    <t>COMPAGNIE MALGACHE</t>
+  </si>
+  <si>
+    <t>CMB</t>
+  </si>
+  <si>
+    <t>BANQUE DES MASCARE</t>
+  </si>
+  <si>
+    <t>BMM</t>
+  </si>
+  <si>
+    <t>BANQUE INDUSTRIELLE</t>
+  </si>
+  <si>
+    <t>BICM</t>
+  </si>
+  <si>
+    <t>ACCES BANQUE MADAGASCAR</t>
+  </si>
+  <si>
+    <t>ABM</t>
+  </si>
+  <si>
+    <t>BGFIBank Madagascar</t>
+  </si>
+  <si>
+    <t>BGFIBank</t>
+  </si>
+  <si>
+    <t>Microcred Banque Madagascar</t>
+  </si>
+  <si>
+    <t>MBM</t>
+  </si>
+  <si>
+    <t>numero_impot</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>date_debut_paiement</t>
+  </si>
+  <si>
+    <t>date_fin_paiement</t>
+  </si>
+  <si>
+    <t>annee</t>
+  </si>
+  <si>
+    <t>01/02/</t>
+  </si>
+  <si>
+    <t>15/02/</t>
+  </si>
+  <si>
+    <t>01/01/</t>
+  </si>
+  <si>
+    <t>31/03/</t>
+  </si>
+  <si>
+    <t>15/05/</t>
+  </si>
+  <si>
+    <t>paye_amende</t>
+  </si>
+  <si>
+    <t>paye_penalite</t>
+  </si>
+  <si>
+    <t>valeur_amende</t>
+  </si>
+  <si>
+    <t>taux_penalite</t>
+  </si>
+  <si>
+    <t>libellé</t>
+  </si>
+  <si>
+    <t>abreviation</t>
+  </si>
+  <si>
+    <t>pcop</t>
+  </si>
+  <si>
+    <t>numero_budget</t>
+  </si>
+  <si>
+    <t>numero_classes</t>
+  </si>
+  <si>
+    <t>chapitre</t>
+  </si>
+  <si>
+    <t>groupe_impot</t>
+  </si>
+  <si>
+    <t>Acompte prov SARL et autres que SA</t>
+  </si>
+  <si>
+    <t>APIBS</t>
+  </si>
+  <si>
+    <t>12-81</t>
+  </si>
+  <si>
+    <t>Acompte provisionnel de l'impôt sur les revenus non sa</t>
+  </si>
+  <si>
+    <t>APIRNS</t>
+  </si>
+  <si>
+    <t>IBS SARL et autres que SA</t>
+  </si>
+  <si>
+    <t>IBS</t>
+  </si>
+  <si>
+    <t>Impôt sur les revenus non salariaux</t>
+  </si>
+  <si>
+    <t>IRNS</t>
+  </si>
+  <si>
+    <t>Impôt sur les revenus salariaux</t>
+  </si>
+  <si>
+    <t>IRSA</t>
+  </si>
+  <si>
+    <t>Impôt synthétique</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Impôt sur les revenus des capitaux mobiliers</t>
+  </si>
+  <si>
+    <t>IRCM</t>
+  </si>
+  <si>
+    <t>14-01</t>
+  </si>
+  <si>
+    <t>Impôt sur les plus values immobilièrs</t>
+  </si>
+  <si>
+    <t>IPVI</t>
+  </si>
+  <si>
+    <t>14-02</t>
+  </si>
+  <si>
+    <t>Taxes forfaitaire sur les transferts</t>
+  </si>
+  <si>
+    <t>TFT</t>
+  </si>
+  <si>
+    <t>Droit sur les actes et mutations à titre onéreux</t>
+  </si>
+  <si>
+    <t>DAMTO</t>
+  </si>
+  <si>
+    <t>Taxe additionnelle sur les ventes immo. Et fonds de comm</t>
+  </si>
+  <si>
+    <t>TAVIFC</t>
+  </si>
+  <si>
+    <t>Droits d'enregistrement sur les actes de sociétés</t>
+  </si>
+  <si>
+    <t>DEAS</t>
+  </si>
+  <si>
+    <t>Droit sur les actes et mutations à titre gratuit</t>
+  </si>
+  <si>
+    <t>DAMTG</t>
+  </si>
+  <si>
+    <t>Taxe proportionnelle spéciale</t>
+  </si>
+  <si>
+    <t>TPS</t>
+  </si>
+  <si>
+    <t>Taxe de publicité foncière</t>
+  </si>
+  <si>
+    <t>TPF</t>
+  </si>
+  <si>
+    <t>Taxe annuelle sur les véhicules de tourisme des entreprises</t>
+  </si>
+  <si>
+    <t>TSVTE</t>
+  </si>
+  <si>
+    <t>Taxe sur les véhicules à moteur - VIGNETTE</t>
+  </si>
+  <si>
+    <t>VIGNETTE</t>
+  </si>
+  <si>
+    <t>Taxe annuelle sur les téléviseurs</t>
+  </si>
+  <si>
+    <t>TAT</t>
+  </si>
+  <si>
+    <t>Taxe sur la valeur ajoutée</t>
+  </si>
+  <si>
+    <t>TVA</t>
+  </si>
+  <si>
+    <t>Taxe sur les transactions</t>
+  </si>
+  <si>
+    <t>TST</t>
+  </si>
+  <si>
+    <t>Droit d'accise</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>Impôt de licence sur les alcools et les produits alcoolique</t>
+  </si>
+  <si>
+    <t>ILAPA</t>
+  </si>
+  <si>
+    <t>Taxe sur les appareils automatiques</t>
+  </si>
+  <si>
+    <t>TAA</t>
+  </si>
+  <si>
+    <t>Taxe professionnel</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Centime additionnelle sur la taxe professionnelle</t>
+  </si>
+  <si>
+    <t>CATP</t>
+  </si>
+  <si>
+    <t>Taxe sur les assurances</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Prélèvemement sur les produits de jeux</t>
+  </si>
+  <si>
+    <t>PPJ</t>
+  </si>
+  <si>
+    <t>Prélèvement spéciaux sur les produits de jeux</t>
+  </si>
+  <si>
+    <t>PSJ</t>
+  </si>
+  <si>
+    <t>Impôt de licenc foraine</t>
+  </si>
+  <si>
+    <t>ILF</t>
+  </si>
+  <si>
+    <t>Prélèvement sur les honoraires des greffiers et notaire</t>
+  </si>
+  <si>
+    <t>PHGN</t>
+  </si>
+  <si>
+    <t>Droit de timbres sur les états et vente de timbre fiscaux</t>
+  </si>
+  <si>
+    <t>DTEVTF</t>
+  </si>
+  <si>
+    <t>Droit de timbre casino</t>
+  </si>
+  <si>
+    <t>DTC</t>
+  </si>
+  <si>
+    <t>Droit de timbre sur visa (Passeport)</t>
+  </si>
+  <si>
+    <t>DTV</t>
+  </si>
+  <si>
+    <t>Taxe sur les spéctacles</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Intérêt sur crédit de droit</t>
+  </si>
+  <si>
+    <t>ICD</t>
+  </si>
+  <si>
+    <t>Amendes fiscales</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Penalité de retard</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Taxe Spéciale pour le Jeunesse et Sport</t>
+  </si>
+  <si>
+    <t>TSJS</t>
+  </si>
+  <si>
+    <t>Acompte provisionnel de l'impôt sur les revenus</t>
+  </si>
+  <si>
+    <t>Impôts sur les revenus</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>libelle</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>ENTREPRISE INDIVIDUELLE</t>
+  </si>
+  <si>
+    <t>SNC</t>
+  </si>
+  <si>
+    <t>STE EN NOM COLLECTIF</t>
+  </si>
+  <si>
+    <t>SCS</t>
+  </si>
+  <si>
+    <t>STE EN COMMENDITE SIMPLE</t>
+  </si>
+  <si>
+    <t>SCA</t>
+  </si>
+  <si>
+    <t>STE EN COMTE PAR ACTION</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>STE ANONYME</t>
+  </si>
+  <si>
+    <t>SARL</t>
+  </si>
+  <si>
+    <t>STE A RESPTE LIMITEE</t>
+  </si>
+  <si>
+    <t>SEM</t>
+  </si>
+  <si>
+    <t>STE D'ECONOMIE MIXTE</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>STE D'INTERET NATIONAL</t>
+  </si>
+  <si>
+    <t>SAE</t>
+  </si>
+  <si>
+    <t>STE ANONYME D'ETAT</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>ENTREPRISE SOCIALISTE</t>
+  </si>
+  <si>
+    <t>EPIC</t>
+  </si>
+  <si>
+    <t>ETS PUBLIC A CAR IND &amp; CO</t>
+  </si>
+  <si>
+    <t>SCI</t>
+  </si>
+  <si>
+    <t>STE CIVILE IMMOBILIERE</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>COOPERATIVE</t>
+  </si>
+  <si>
+    <t>ASS</t>
+  </si>
+  <si>
+    <t>ASSOCIATION</t>
+  </si>
+  <si>
+    <t>ONG</t>
+  </si>
+  <si>
+    <t>ORGANISME NON GOUVERNEMENTAL</t>
+  </si>
+  <si>
+    <t>EPST</t>
+  </si>
+  <si>
+    <t>ETS PUBLIC SCIENT TECHNI</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>PROJET</t>
+  </si>
+  <si>
+    <t>EURL</t>
+  </si>
+  <si>
+    <t>ESE UNIPERS A RESP LIMITE</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Mangamaro</t>
+  </si>
+  <si>
+    <t>Belobaka</t>
+  </si>
+  <si>
+    <t>Mahabibo Ambony</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Mahanjaga be</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>PIECE</t>
+  </si>
+  <si>
+    <t>PLACE</t>
+  </si>
+  <si>
+    <t>AUTRE</t>
+  </si>
+  <si>
+    <t>operateur</t>
+  </si>
+  <si>
+    <t>periodicite</t>
+  </si>
+  <si>
+    <t>titre</t>
+  </si>
+  <si>
+    <t>MENSUEL</t>
+  </si>
+  <si>
+    <t>MOIS</t>
+  </si>
+  <si>
+    <t>BIMESTRIEL</t>
+  </si>
+  <si>
+    <t>BIMESTRE</t>
+  </si>
+  <si>
+    <t>TRIMESTRIEL</t>
+  </si>
+  <si>
+    <t>TRIMESTRE</t>
+  </si>
+  <si>
+    <t>SEMESTRIEL</t>
+  </si>
+  <si>
+    <t>SEMESTRE</t>
+  </si>
+  <si>
+    <t>ANNUEL</t>
+  </si>
+  <si>
+    <t>ANNEE</t>
+  </si>
+  <si>
+    <t>choix</t>
+  </si>
+  <si>
+    <t>obligation</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>taxation</t>
+  </si>
+  <si>
+    <t>penalite</t>
+  </si>
+  <si>
+    <t>article 06,01,15</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>article 06,01028</t>
+  </si>
+  <si>
+    <t>article 06</t>
+  </si>
+  <si>
+    <t>article 01,01,01</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>article 01,03,12</t>
+  </si>
+  <si>
+    <t>article 01</t>
+  </si>
+  <si>
+    <t>article 03,01,06</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>article 01,04,20</t>
+  </si>
+  <si>
+    <t>article 03,09,02</t>
+  </si>
+  <si>
+    <t>article 01,04,18</t>
+  </si>
+  <si>
+    <t>article 03,09,03</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>article 04,02,08</t>
+  </si>
+  <si>
+    <t>article 08,05,02</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>article 04,04,07</t>
+  </si>
+  <si>
+    <t>cloture</t>
+  </si>
+  <si>
+    <t>31/12</t>
+  </si>
+  <si>
+    <t>30/04</t>
+  </si>
+  <si>
+    <t>31/01</t>
+  </si>
+  <si>
+    <t>31/05</t>
+  </si>
+  <si>
+    <t>numero_auto</t>
+  </si>
+  <si>
+    <t>periode</t>
+  </si>
+  <si>
+    <t>desc_mois</t>
+  </si>
+  <si>
+    <t>titre_per</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>id_clo</t>
+  </si>
+  <si>
+    <t>JANV</t>
+  </si>
+  <si>
+    <t>JANVIER</t>
+  </si>
+  <si>
+    <t>FEV</t>
+  </si>
+  <si>
+    <t>FEVRIER</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MARS</t>
+  </si>
+  <si>
+    <t>AVR</t>
+  </si>
+  <si>
+    <t>AVRIL</t>
+  </si>
+  <si>
+    <t>MAI</t>
+  </si>
+  <si>
+    <t>JUIN</t>
+  </si>
+  <si>
+    <t>JUIL</t>
+  </si>
+  <si>
+    <t>JUILLET</t>
+  </si>
+  <si>
+    <t>AOUT</t>
+  </si>
+  <si>
+    <t>SEPT</t>
+  </si>
+  <si>
+    <t>SEPTEMBRE</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>OCTOBRE</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>NOVEMBRE</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>DECEMBRE</t>
+  </si>
+  <si>
+    <t>JANV-JUIN</t>
+  </si>
+  <si>
+    <t>JUIL-DEC</t>
+  </si>
+  <si>
+    <t>JAN-MAR</t>
+  </si>
+  <si>
+    <t>AVR-JUIN</t>
+  </si>
+  <si>
+    <t>JUIL-SEPT</t>
+  </si>
+  <si>
+    <t>OCT-DEC</t>
+  </si>
+  <si>
+    <t>JANV-FEV</t>
+  </si>
+  <si>
+    <t>MAR-AVR</t>
+  </si>
+  <si>
+    <t>MAI-JUIN</t>
+  </si>
+  <si>
+    <t>JUIL-AOUT</t>
+  </si>
+  <si>
+    <t>SEPT-OCT</t>
+  </si>
+  <si>
+    <t>NOV-DEC</t>
+  </si>
+  <si>
+    <t>JAN-DEC</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>INCONNU</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>ABATS D'ANIMAUX (voir Boyaux)</t>
+  </si>
+  <si>
+    <t>ABATTOIR INDUSTRIEL (Exploitant)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>ACCUMULATEURS (Fabricant)</t>
+  </si>
+  <si>
+    <t>ACCUMULATEURS (Réparateur et chargeur)</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Acupuncture (Voir Médecin)</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Aérobie (tenant un centre)</t>
+  </si>
+  <si>
+    <t>AEROPORT (gestion, exploitation, rehabiliitation)</t>
+  </si>
+  <si>
+    <t>AFFAIRES (Agent)</t>
+  </si>
+  <si>
+    <t>AGRICULTURES (Exploitant)</t>
+  </si>
+  <si>
+    <t>AGRO</t>
+  </si>
+  <si>
+    <t>ALCOOL DE MENTHE (Fabricant d)</t>
+  </si>
+  <si>
+    <t>ALIMENTS DU BETAILS (Fabricant d)</t>
+  </si>
+  <si>
+    <t>ALIMENTS DE BETAIL (Marchand d)</t>
+  </si>
+  <si>
+    <t>ALUMINIUM (Fabricant d'objets en)</t>
+  </si>
+  <si>
+    <t>APPAREILS AUTOMATIQUE (Exploitant d)</t>
+  </si>
+  <si>
+    <t>APPAREILS DE(Loueur d) MUSIQUE, POSTE</t>
+  </si>
+  <si>
+    <t>APPAREILS ET APPAREILLAGES ELECTRIQUES E</t>
+  </si>
+  <si>
+    <t>APPAREILS OU MATERIELS MECANIQUES (Loueur d)</t>
+  </si>
+  <si>
+    <t>APP OU MAT MECA IND OU AGR (Marchand d)</t>
+  </si>
+  <si>
+    <t>APP OU MAT POUR IND &amp; GRO TRAV (Loueur d)</t>
+  </si>
+  <si>
+    <t>APPAREILS DOMESTIQUES (Marchand d)</t>
+  </si>
+  <si>
+    <t>APP ELEC,MECA,DOME (Montage, pose, entretien)</t>
+  </si>
+  <si>
+    <t>APP ELEC,MECA OU DOM (Fabricand d)</t>
+  </si>
+  <si>
+    <t>APPROVISIONNEUR DE NAVIRES</t>
+  </si>
+  <si>
+    <t>ARBRES (Entrepreneur d'abattage d)</t>
+  </si>
+  <si>
+    <t>ARCHITECTE</t>
+  </si>
+  <si>
+    <t>ARMES-ART SPORT-CHASSE (Marchand) en gros</t>
+  </si>
+  <si>
+    <t>ARMES-ART SPORT-CHASSE (Marchand) AU DETAIL</t>
+  </si>
+  <si>
+    <t>BUDGET GENERAL</t>
+  </si>
+  <si>
+    <t>BUDGET PROVINCE AUTONOME</t>
+  </si>
+  <si>
+    <t>BUDGET COMMUNAL</t>
+  </si>
+  <si>
+    <t>BUDGET REGIONAL</t>
+  </si>
+  <si>
+    <t>HORS BUDGET</t>
+  </si>
+  <si>
+    <t>impot</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>taux</t>
+  </si>
+  <si>
+    <t>463622-2</t>
+  </si>
+  <si>
+    <t>numero_classe</t>
+  </si>
+  <si>
+    <t>Impôts sur les bénéfices - Revenus</t>
+  </si>
+  <si>
+    <t>Impôts sur le patrimoine</t>
+  </si>
+  <si>
+    <t>Impôts sur les biens et services</t>
+  </si>
+  <si>
+    <t>Autres recettes fiscales</t>
+  </si>
+  <si>
+    <t>Au profit du province autonome</t>
+  </si>
+  <si>
+    <t>Au profit communal</t>
+  </si>
+  <si>
+    <t>Hors budget</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>type_prevision</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>Loi de Finances</t>
+  </si>
+  <si>
+    <t>LFR</t>
+  </si>
+  <si>
+    <t>Loi de Finances Rectificatives</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Prévision Reprogrammé</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>jour</t>
+  </si>
+  <si>
+    <t>motif</t>
+  </si>
+  <si>
+    <t>01/01/2012</t>
+  </si>
+  <si>
+    <t>Dimanche</t>
+  </si>
+  <si>
+    <t>JOUR DE L'AN</t>
+  </si>
+  <si>
+    <t>16/01/2012</t>
+  </si>
+  <si>
+    <t>Lundi</t>
+  </si>
+  <si>
+    <t>FETE NATIONAL</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>LUNDI DE PAQUES</t>
+  </si>
+  <si>
+    <t>19/09/2012</t>
+  </si>
+  <si>
+    <t>Mercredi</t>
+  </si>
+  <si>
+    <t>FERIE</t>
+  </si>
+  <si>
+    <t>anne_exercice</t>
+  </si>
+  <si>
+    <t>mois_exercice</t>
+  </si>
+  <si>
+    <t>montant</t>
+  </si>
+  <si>
+    <t>arrondisement</t>
+  </si>
+  <si>
+    <t>fokontany</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,13 +1107,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,230 +1446,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>raison_social</v>
-      </c>
-      <c r="C1" t="str">
-        <v>nom_commercial</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>BANK OF AFRICA</v>
-      </c>
-      <c r="C2" t="str">
-        <v>BOA-BTM</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>BANKY FAMPANDROSOA</v>
-      </c>
-      <c r="C3" t="str">
-        <v>BFV-SG</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>BNI CREDIT LYONNAIS</v>
-      </c>
-      <c r="C4" t="str">
-        <v>BNI CL</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>BANQUE MALGACHE DE</v>
-      </c>
-      <c r="C5" t="str">
-        <v>BMOI</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>UNION COMMERCIAL BANK</v>
-      </c>
-      <c r="C6" t="str">
-        <v>UCB</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>BANQUE CENTRAL DE</v>
-      </c>
-      <c r="C7" t="str">
-        <v>BCRM</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <v>CHEQUE TRESOR</v>
-      </c>
-      <c r="C8" t="str">
-        <v>TRESOR</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <v>CENTRE DE CHEQUES P</v>
-      </c>
-      <c r="C9" t="str">
-        <v>CCP</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <v>SBM</v>
-      </c>
-      <c r="C10" t="str">
-        <v>SBM</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <v>COMPAGNIE MALGACHE</v>
-      </c>
-      <c r="C11" t="str">
-        <v>CMB</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <v>BANQUE DES MASCARE</v>
-      </c>
-      <c r="C12" t="str">
-        <v>BMM</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
-        <v>BANQUE INDUSTRIELLE</v>
-      </c>
-      <c r="C13" t="str">
-        <v>BICM</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
-        <v>ACCES BANQUE MADAGASCAR</v>
-      </c>
-      <c r="C14" t="str">
-        <v>ABM</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <v>BGFIBank Madagascar</v>
-      </c>
-      <c r="C15" t="str">
-        <v>BGFIBank</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
-        <v>Microcred Banque Madagascar</v>
-      </c>
-      <c r="C16" t="str">
-        <v>MBM</v>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C16"/>
+    <ignoredError sqref="A1:C16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>numero_impot</v>
-      </c>
-      <c r="C1" t="str">
-        <v>choix</v>
-      </c>
-      <c r="D1" t="str">
-        <v>obligation</v>
-      </c>
-      <c r="E1" t="str">
-        <v>periodicite</v>
-      </c>
-      <c r="F1" t="str">
-        <v>option</v>
-      </c>
-      <c r="G1" t="str">
-        <v>taxation</v>
-      </c>
-      <c r="H1" t="str">
-        <v>penalite</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -648,23 +1681,23 @@
       <c r="C2">
         <v>22</v>
       </c>
-      <c r="D2" t="str">
-        <v>article 06,01,15</v>
-      </c>
-      <c r="E2" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="F2" t="str">
-        <v>M</v>
-      </c>
-      <c r="G2" t="str">
-        <v>article 06,01028</v>
-      </c>
-      <c r="H2" t="str">
-        <v>article 06</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -674,17 +1707,17 @@
       <c r="C3">
         <v>61</v>
       </c>
-      <c r="D3" t="str">
-        <v>article 01,01,01</v>
-      </c>
-      <c r="E3" t="str">
-        <v>ANNUEL</v>
-      </c>
-      <c r="F3" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -694,20 +1727,20 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" t="str">
-        <v>article 01,03,12</v>
-      </c>
-      <c r="E4" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="F4" t="str">
-        <v>M</v>
-      </c>
-      <c r="H4" t="str">
-        <v>article 01</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -717,17 +1750,17 @@
       <c r="C5">
         <v>24</v>
       </c>
-      <c r="D5" t="str">
-        <v>article 03,01,06</v>
-      </c>
-      <c r="E5" t="str">
-        <v>BIMESTRIEL</v>
-      </c>
-      <c r="F5" t="str">
-        <v>B</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -737,20 +1770,20 @@
       <c r="C6">
         <v>7</v>
       </c>
-      <c r="D6" t="str">
-        <v>article 01,04,20</v>
-      </c>
-      <c r="E6" t="str">
-        <v>ANNUEL</v>
-      </c>
-      <c r="F6" t="str">
-        <v>A</v>
-      </c>
-      <c r="H6" t="str">
-        <v>article 01</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="D6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -760,23 +1793,23 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="str">
-        <v>article 03,09,02</v>
-      </c>
-      <c r="E7" t="str">
-        <v>ANNUEL</v>
-      </c>
-      <c r="F7" t="str">
-        <v>A</v>
-      </c>
-      <c r="G7" t="str">
-        <v>article 01,04,18</v>
-      </c>
-      <c r="H7" t="str">
-        <v>article 01</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="D7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -786,17 +1819,17 @@
       <c r="C8">
         <v>26</v>
       </c>
-      <c r="D8" t="str">
-        <v>article 03,09,03</v>
-      </c>
-      <c r="E8" t="str">
-        <v>TRIMESTRIEL</v>
-      </c>
-      <c r="F8" t="str">
-        <v>T</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="D8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -806,17 +1839,17 @@
       <c r="C9">
         <v>27</v>
       </c>
-      <c r="D9" t="str">
-        <v>article 04,02,08</v>
-      </c>
-      <c r="E9" t="str">
-        <v>ANNUEL</v>
-      </c>
-      <c r="F9" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="D9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -826,17 +1859,17 @@
       <c r="C10">
         <v>32</v>
       </c>
-      <c r="D10" t="str">
-        <v>article 08,05,02</v>
-      </c>
-      <c r="E10" t="str">
-        <v>ANNUEL</v>
-      </c>
-      <c r="F10" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -846,17 +1879,17 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" t="str">
-        <v>article 01,03,12</v>
-      </c>
-      <c r="E11" t="str">
-        <v>SEMESTRIEL</v>
-      </c>
-      <c r="F11" t="str">
-        <v>S</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="D11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -866,17 +1899,17 @@
       <c r="C12">
         <v>60</v>
       </c>
-      <c r="D12" t="str">
-        <v>article 04,04,07</v>
-      </c>
-      <c r="E12" t="str">
-        <v>BIMESTRIEL</v>
-      </c>
-      <c r="F12" t="str">
-        <v>B</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -886,17 +1919,17 @@
       <c r="C13">
         <v>65</v>
       </c>
-      <c r="D13" t="str">
-        <v>article 04,04,07</v>
-      </c>
-      <c r="E13" t="str">
-        <v>TRIMESTRIEL</v>
-      </c>
-      <c r="F13" t="str">
-        <v>T</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="D13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -906,17 +1939,17 @@
       <c r="C14">
         <v>60</v>
       </c>
-      <c r="D14" t="str">
-        <v>article 04,04,07</v>
-      </c>
-      <c r="E14" t="str">
-        <v>SEMESTRIEL</v>
-      </c>
-      <c r="F14" t="str">
-        <v>S</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="D14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -926,147 +1959,149 @@
       <c r="C15">
         <v>63</v>
       </c>
-      <c r="E15" t="str">
-        <v>SEMESTRIEL</v>
+      <c r="E15" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H15"/>
+    <ignoredError sqref="A1:H15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>numero</v>
-      </c>
-      <c r="C1" t="str">
-        <v>cloture</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>27</v>
       </c>
-      <c r="C2" t="str">
-        <v>31/12</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>28</v>
       </c>
-      <c r="C3" t="str">
-        <v>30/04</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>29</v>
       </c>
-      <c r="C4" t="str">
-        <v>30/04</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
-      <c r="C5" t="str">
-        <v>31/01</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>31</v>
       </c>
-      <c r="C6" t="str">
-        <v>31/05</v>
+      <c r="C6" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError sqref="A1:C6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>numero_auto</v>
-      </c>
-      <c r="C1" t="str">
-        <v>periode</v>
-      </c>
-      <c r="D1" t="str">
-        <v>desc_mois</v>
-      </c>
-      <c r="E1" t="str">
-        <v>titre_per</v>
-      </c>
-      <c r="F1" t="str">
-        <v>p1</v>
-      </c>
-      <c r="G1" t="str">
-        <v>p2</v>
-      </c>
-      <c r="H1" t="str">
-        <v>id_clo</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="D2" t="str">
-        <v>JANV</v>
-      </c>
-      <c r="E2" t="str">
-        <v>JANVIER</v>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" t="s">
+        <v>233</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1078,21 +2113,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="D3" t="str">
-        <v>FEV</v>
-      </c>
-      <c r="E3" t="str">
-        <v>FEVRIER</v>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" t="s">
+        <v>235</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1104,21 +2139,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="D4" t="str">
-        <v>MAR</v>
-      </c>
-      <c r="E4" t="str">
-        <v>MARS</v>
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" t="s">
+        <v>237</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1130,21 +2165,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="D5" t="str">
-        <v>AVR</v>
-      </c>
-      <c r="E5" t="str">
-        <v>AVRIL</v>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" t="s">
+        <v>239</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1156,21 +2191,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="D6" t="str">
-        <v>MAI</v>
-      </c>
-      <c r="E6" t="str">
-        <v>MAI</v>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" t="s">
+        <v>240</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1182,21 +2217,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="D7" t="str">
-        <v>JUIN</v>
-      </c>
-      <c r="E7" t="str">
-        <v>JUIN</v>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" t="s">
+        <v>241</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1208,21 +2243,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="D8" t="str">
-        <v>JUIL</v>
-      </c>
-      <c r="E8" t="str">
-        <v>JUILLET</v>
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" t="s">
+        <v>243</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -1234,21 +2269,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="D9" t="str">
-        <v>AOUT</v>
-      </c>
-      <c r="E9" t="str">
-        <v>AOUT</v>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" t="s">
+        <v>244</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -1260,21 +2295,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="D10" t="str">
-        <v>SEPT</v>
-      </c>
-      <c r="E10" t="str">
-        <v>SEPTEMBRE</v>
+      <c r="C10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" t="s">
+        <v>246</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1286,21 +2321,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="D11" t="str">
-        <v>OCT</v>
-      </c>
-      <c r="E11" t="str">
-        <v>OCTOBRE</v>
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" t="s">
+        <v>248</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1312,21 +2347,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="D12" t="str">
-        <v>NOV</v>
-      </c>
-      <c r="E12" t="str">
-        <v>NOVEMBRE</v>
+      <c r="C12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" t="s">
+        <v>250</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1338,21 +2373,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="D13" t="str">
-        <v>DEC</v>
-      </c>
-      <c r="E13" t="str">
-        <v>DECEMBRE</v>
+      <c r="C13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" t="s">
+        <v>252</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -1364,21 +2399,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="str">
-        <v>SEMESTRIEL</v>
-      </c>
-      <c r="D14" t="str">
-        <v>JANV-JUIN</v>
-      </c>
-      <c r="E14" t="str">
-        <v>SEMESTRE</v>
+      <c r="C14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" t="s">
+        <v>193</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1390,21 +2425,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" t="str">
-        <v>SEMESTRIEL</v>
-      </c>
-      <c r="D15" t="str">
-        <v>JUIL-DEC</v>
-      </c>
-      <c r="E15" t="str">
-        <v>SEMESTRE</v>
+      <c r="C15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" t="s">
+        <v>193</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -1416,21 +2451,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" t="str">
-        <v>TRIMESTRIEL</v>
-      </c>
-      <c r="D16" t="str">
-        <v>JAN-MAR</v>
-      </c>
-      <c r="E16" t="str">
-        <v>TRIMESTRE</v>
+      <c r="C16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" t="s">
+        <v>191</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1442,21 +2477,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" t="str">
-        <v>TRIMESTRIEL</v>
-      </c>
-      <c r="D17" t="str">
-        <v>AVR-JUIN</v>
-      </c>
-      <c r="E17" t="str">
-        <v>TRIMESTRE</v>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" t="s">
+        <v>191</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -1468,21 +2503,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" t="str">
-        <v>TRIMESTRIEL</v>
-      </c>
-      <c r="D18" t="str">
-        <v>JUIL-SEPT</v>
-      </c>
-      <c r="E18" t="str">
-        <v>TRIMESTRE</v>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" t="s">
+        <v>191</v>
       </c>
       <c r="F18">
         <v>7</v>
@@ -1494,21 +2529,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" t="str">
-        <v>TRIMESTRIEL</v>
-      </c>
-      <c r="D19" t="str">
-        <v>OCT-DEC</v>
-      </c>
-      <c r="E19" t="str">
-        <v>TRIMESTRE</v>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" t="s">
+        <v>191</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -1520,21 +2555,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" t="str">
-        <v>BIMESTRIEL</v>
-      </c>
-      <c r="D20" t="str">
-        <v>JANV-FEV</v>
-      </c>
-      <c r="E20" t="str">
-        <v>BIMESTRE</v>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" t="s">
+        <v>259</v>
+      </c>
+      <c r="E20" t="s">
+        <v>189</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1546,21 +2581,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" t="str">
-        <v>BIMESTRIEL</v>
-      </c>
-      <c r="D21" t="str">
-        <v>MAR-AVR</v>
-      </c>
-      <c r="E21" t="str">
-        <v>BIMESTRE</v>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" t="s">
+        <v>189</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -1572,21 +2607,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" t="str">
-        <v>BIMESTRIEL</v>
-      </c>
-      <c r="D22" t="str">
-        <v>MAI-JUIN</v>
-      </c>
-      <c r="E22" t="str">
-        <v>BIMESTRE</v>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" t="s">
+        <v>261</v>
+      </c>
+      <c r="E22" t="s">
+        <v>189</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -1598,21 +2633,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23" t="str">
-        <v>BIMESTRIEL</v>
-      </c>
-      <c r="D23" t="str">
-        <v>JUIL-AOUT</v>
-      </c>
-      <c r="E23" t="str">
-        <v>BIMESTRE</v>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" t="s">
+        <v>189</v>
       </c>
       <c r="F23">
         <v>7</v>
@@ -1624,21 +2659,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24" t="str">
-        <v>BIMESTRIEL</v>
-      </c>
-      <c r="D24" t="str">
-        <v>SEPT-OCT</v>
-      </c>
-      <c r="E24" t="str">
-        <v>BIMESTRE</v>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" t="s">
+        <v>189</v>
       </c>
       <c r="F24">
         <v>9</v>
@@ -1650,21 +2685,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
-      <c r="C25" t="str">
-        <v>BIMESTRIEL</v>
-      </c>
-      <c r="D25" t="str">
-        <v>NOV-DEC</v>
-      </c>
-      <c r="E25" t="str">
-        <v>BIMESTRE</v>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25" t="s">
+        <v>189</v>
       </c>
       <c r="F25">
         <v>11</v>
@@ -1676,21 +2711,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" t="str">
-        <v>ANNUEL</v>
-      </c>
-      <c r="D26" t="str">
-        <v>JAN-DEC</v>
-      </c>
-      <c r="E26" t="str">
-        <v>ANNEE</v>
+      <c r="C26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" t="s">
+        <v>195</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1703,435 +2738,443 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H26"/>
+    <ignoredError sqref="A1:H26" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>code</v>
-      </c>
-      <c r="B1" t="str">
-        <v>libelle</v>
-      </c>
-      <c r="C1" t="str">
-        <v>nature</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
-        <v>INCONNU</v>
-      </c>
-      <c r="C2" t="str">
-        <v>C</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="str">
-        <v>ABATS D'ANIMAUX (voir Boyaux)</v>
-      </c>
-      <c r="C3" t="str">
-        <v>C</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4" t="str">
-        <v>ABATTOIR INDUSTRIEL (Exploitant)</v>
-      </c>
-      <c r="C4" t="str">
-        <v>I</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
-      <c r="B5" t="str">
-        <v>ACCUMULATEURS (Fabricant)</v>
-      </c>
-      <c r="C5" t="str">
-        <v>I</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>51</v>
       </c>
-      <c r="B6" t="str">
-        <v>ACCUMULATEURS (Réparateur et chargeur)</v>
-      </c>
-      <c r="C6" t="str">
-        <v>PS</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23</v>
       </c>
-      <c r="B7" t="str">
-        <v>Acupuncture (Voir Médecin)</v>
-      </c>
-      <c r="C7" t="str">
-        <v>PL</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
-      <c r="B8" t="str">
-        <v>Aérobie (tenant un centre)</v>
-      </c>
-      <c r="C8" t="str">
-        <v>PS</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>29</v>
       </c>
-      <c r="B9" t="str">
-        <v>AEROPORT (gestion, exploitation, rehabiliitation)</v>
-      </c>
-      <c r="C9" t="str">
-        <v>PS</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
-      <c r="B10" t="str">
-        <v>AFFAIRES (Agent)</v>
-      </c>
-      <c r="C10" t="str">
-        <v>PL</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
-      <c r="B11" t="str">
-        <v>AGRICULTURES (Exploitant)</v>
-      </c>
-      <c r="C11" t="str">
-        <v>AGRO</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>41</v>
       </c>
-      <c r="B12" t="str">
-        <v>ALCOOL DE MENTHE (Fabricant d)</v>
-      </c>
-      <c r="C12" t="str">
-        <v>I</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
-      <c r="B13" t="str">
-        <v>ALIMENTS DU BETAILS (Fabricant d)</v>
-      </c>
-      <c r="C13" t="str">
-        <v>I</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>61</v>
       </c>
-      <c r="B14" t="str">
-        <v>ALIMENTS DE BETAIL (Marchand d)</v>
-      </c>
-      <c r="C14" t="str">
-        <v>I</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>62</v>
       </c>
-      <c r="B15" t="str">
-        <v>ALUMINIUM (Fabricant d'objets en)</v>
-      </c>
-      <c r="C15" t="str">
-        <v>I</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>72</v>
       </c>
-      <c r="B16" t="str">
-        <v>APPAREILS AUTOMATIQUE (Exploitant d)</v>
-      </c>
-      <c r="C16" t="str">
-        <v>PS</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>72</v>
       </c>
-      <c r="B17" t="str">
-        <v>APPAREILS DE(Loueur d) MUSIQUE, POSTE</v>
-      </c>
-      <c r="C17" t="str">
-        <v>PS</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>81</v>
       </c>
-      <c r="B18" t="str">
-        <v>APPAREILS ET APPAREILLAGES ELECTRIQUES E</v>
-      </c>
-      <c r="C18" t="str">
-        <v>C</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>91</v>
       </c>
-      <c r="B19" t="str">
-        <v>APPAREILS OU MATERIELS MECANIQUES (Loueur d)</v>
-      </c>
-      <c r="C19" t="str">
-        <v>C</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>101</v>
       </c>
-      <c r="B20" t="str">
-        <v>APP OU MAT MECA IND OU AGR (Marchand d)</v>
-      </c>
-      <c r="C20" t="str">
-        <v>C</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>111</v>
       </c>
-      <c r="B21" t="str">
-        <v>APP OU MAT POUR IND &amp; GRO TRAV (Loueur d)</v>
-      </c>
-      <c r="C21" t="str">
-        <v>C</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>121</v>
       </c>
-      <c r="B22" t="str">
-        <v>APPAREILS DOMESTIQUES (Marchand d)</v>
-      </c>
-      <c r="C22" t="str">
-        <v>PS</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="B22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>131</v>
       </c>
-      <c r="B23" t="str">
-        <v>APP ELEC,MECA,DOME (Montage, pose, entretien)</v>
-      </c>
-      <c r="C23" t="str">
-        <v>PS</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="B23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>135</v>
       </c>
-      <c r="B24" t="str">
-        <v>APP ELEC,MECA OU DOM (Fabricand d)</v>
-      </c>
-      <c r="C24" t="str">
-        <v>I</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="B24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>141</v>
       </c>
-      <c r="B25" t="str">
-        <v>APPROVISIONNEUR DE NAVIRES</v>
-      </c>
-      <c r="C25" t="str">
-        <v>C</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="B25" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>143</v>
       </c>
-      <c r="B26" t="str">
-        <v>ARBRES (Entrepreneur d'abattage d)</v>
-      </c>
-      <c r="C26" t="str">
-        <v>I</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="B26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>151</v>
       </c>
-      <c r="B27" t="str">
-        <v>ARCHITECTE</v>
-      </c>
-      <c r="C27" t="str">
-        <v>PL</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="B27" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>161</v>
       </c>
-      <c r="B28" t="str">
-        <v>ARMES-ART SPORT-CHASSE (Marchand) en gros</v>
-      </c>
-      <c r="C28" t="str">
-        <v>C</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="B28" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>162</v>
       </c>
-      <c r="B29" t="str">
-        <v>ARMES-ART SPORT-CHASSE (Marchand) AU DETAIL</v>
-      </c>
-      <c r="C29" t="str">
-        <v>C</v>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C29"/>
+    <ignoredError sqref="A1:C29" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>numero</v>
-      </c>
-      <c r="B1" t="str">
-        <v>libelle</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>BUDGET GENERAL</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>BUDGET PROVINCE AUTONOME</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>BUDGET COMMUNAL</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>BUDGET REGIONAL</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>HORS BUDGET</v>
+      <c r="B6" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
+    <ignoredError sqref="A1:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>impot</v>
-      </c>
-      <c r="C1" t="str">
-        <v>budget</v>
-      </c>
-      <c r="D1" t="str">
-        <v>taux</v>
-      </c>
-      <c r="E1" t="str">
-        <v>pcop</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2148,7 +3191,7 @@
         <v>7023</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2165,7 +3208,7 @@
         <v>7023</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2182,7 +3225,7 @@
         <v>7231</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2199,7 +3242,7 @@
         <v>7023</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2212,796 +3255,801 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="str">
-        <v>463622-2</v>
+      <c r="E6" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError sqref="A1:E6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>numero_classe</v>
-      </c>
-      <c r="B1" t="str">
-        <v>libelle</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Impôts sur les bénéfices - Revenus</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Impôts sur le patrimoine</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>Impôts sur les biens et services</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>Autres recettes fiscales</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>Au profit du province autonome</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>Au profit communal</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <v>Hors budget</v>
+      <c r="B8" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B8"/>
+    <ignoredError sqref="A1:B8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>code</v>
-      </c>
-      <c r="B1" t="str">
-        <v>libelle</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>MED</v>
+      <c r="B2" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError sqref="A1:B2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>type_prevision</v>
-      </c>
-      <c r="C1" t="str">
-        <v>libelle</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>LF</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Loi de Finances</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>LFR</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Loi de Finances Rectificatives</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>PF</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Prévision Reprogrammé</v>
+      <c r="B4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError sqref="A1:C4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>date</v>
-      </c>
-      <c r="C1" t="str">
-        <v>jour</v>
-      </c>
-      <c r="D1" t="str">
-        <v>motif</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>01/01/2012</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Dimanche</v>
-      </c>
-      <c r="D2" t="str">
-        <v>JOUR DE L'AN</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>16/01/2012</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Lundi</v>
-      </c>
-      <c r="D3" t="str">
-        <v>FETE NATIONAL</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>09/04/2012</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Lundi</v>
-      </c>
-      <c r="D4" t="str">
-        <v>LUNDI DE PAQUES</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>19/09/2012</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Mercredi</v>
-      </c>
-      <c r="D5" t="str">
-        <v>FERIE</v>
+      <c r="B5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError sqref="A1:D5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>numero_impot</v>
-      </c>
-      <c r="C1" t="str">
-        <v>type</v>
-      </c>
-      <c r="D1" t="str">
-        <v>date_debut_paiement</v>
-      </c>
-      <c r="E1" t="str">
-        <v>date_fin_paiement</v>
-      </c>
-      <c r="F1" t="str">
-        <v>annee</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="D5" t="str">
-        <v>01/02/</v>
-      </c>
-      <c r="E5" t="str">
-        <v>15/02/</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6" t="str">
-        <v>01/01/</v>
-      </c>
-      <c r="E6" t="str">
-        <v>31/03/</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="D7" t="str">
-        <v>01/01/</v>
-      </c>
-      <c r="E7" t="str">
-        <v>15/05/</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3009,84 +4057,86 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F97"/>
+    <ignoredError sqref="A1:F97" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>anne_exercice</v>
-      </c>
-      <c r="C1" t="str">
-        <v>mois_exercice</v>
-      </c>
-      <c r="D1" t="str">
-        <v>type_prevision</v>
-      </c>
-      <c r="E1" t="str">
-        <v>numero_impot</v>
-      </c>
-      <c r="F1" t="str">
-        <v>montant</v>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F1"/>
+    <ignoredError sqref="A1:F1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>numero_impot</v>
-      </c>
-      <c r="C1" t="str">
-        <v>paye_amende</v>
-      </c>
-      <c r="D1" t="str">
-        <v>paye_penalite</v>
-      </c>
-      <c r="E1" t="str">
-        <v>valeur_amende</v>
-      </c>
-      <c r="F1" t="str">
-        <v>taux_penalite</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3094,462 +4144,462 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3557,53 +4607,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F96"/>
+    <ignoredError sqref="A1:F96" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>numero_impot</v>
-      </c>
-      <c r="B1" t="str">
-        <v>libellé</v>
-      </c>
-      <c r="C1" t="str">
-        <v>abreviation</v>
-      </c>
-      <c r="D1" t="str">
-        <v>pcop</v>
-      </c>
-      <c r="E1" t="str">
-        <v>numero_budget</v>
-      </c>
-      <c r="F1" t="str">
-        <v>numero_classes</v>
-      </c>
-      <c r="G1" t="str">
-        <v>chapitre</v>
-      </c>
-      <c r="H1" t="str">
-        <v>groupe_impot</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Acompte prov SARL et autres que SA</v>
-      </c>
-      <c r="C2" t="str">
-        <v>APIBS</v>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
       </c>
       <c r="D2">
         <v>7012</v>
@@ -3614,22 +4665,22 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="str">
-        <v>12-81</v>
+      <c r="G2" t="s">
+        <v>55</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Acompte provisionnel de l'impôt sur les revenus non sa</v>
-      </c>
-      <c r="C3" t="str">
-        <v>APIRNS</v>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
       </c>
       <c r="D3">
         <v>7021</v>
@@ -3640,22 +4691,22 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="str">
-        <v>12-81</v>
+      <c r="G3" t="s">
+        <v>55</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>IBS SARL et autres que SA</v>
-      </c>
-      <c r="C4" t="str">
-        <v>IBS</v>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
       </c>
       <c r="D4">
         <v>7012</v>
@@ -3666,22 +4717,22 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="str">
-        <v>12-81</v>
+      <c r="G4" t="s">
+        <v>55</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>Impôt sur les revenus non salariaux</v>
-      </c>
-      <c r="C5" t="str">
-        <v>IRNS</v>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
       </c>
       <c r="D5">
         <v>7021</v>
@@ -3692,22 +4743,22 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" t="str">
-        <v>12-81</v>
+      <c r="G5" t="s">
+        <v>55</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>Impôt sur les revenus salariaux</v>
-      </c>
-      <c r="C6" t="str">
-        <v>IRSA</v>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
       </c>
       <c r="D6">
         <v>7022</v>
@@ -3718,22 +4769,22 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="str">
-        <v>12-81</v>
+      <c r="G6" t="s">
+        <v>55</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>Impôt synthétique</v>
-      </c>
-      <c r="C7" t="str">
-        <v>IS</v>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
       </c>
       <c r="D7">
         <v>7023</v>
@@ -3744,22 +4795,22 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" t="str">
-        <v>12-81</v>
+      <c r="G7" t="s">
+        <v>55</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <v>Impôt sur les revenus des capitaux mobiliers</v>
-      </c>
-      <c r="C8" t="str">
-        <v>IRCM</v>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
       </c>
       <c r="D8">
         <v>7030</v>
@@ -3770,22 +4821,22 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" t="str">
-        <v>14-01</v>
+      <c r="G8" t="s">
+        <v>68</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <v>Impôt sur les plus values immobilièrs</v>
-      </c>
-      <c r="C9" t="str">
-        <v>IPVI</v>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
       </c>
       <c r="D9">
         <v>7040</v>
@@ -3796,22 +4847,22 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" t="str">
-        <v>14-02</v>
+      <c r="G9" t="s">
+        <v>71</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <v>Taxes forfaitaire sur les transferts</v>
-      </c>
-      <c r="C10" t="str">
-        <v>TFT</v>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
       </c>
       <c r="D10">
         <v>7050</v>
@@ -3826,15 +4877,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <v>Droit sur les actes et mutations à titre onéreux</v>
-      </c>
-      <c r="C11" t="str">
-        <v>DAMTO</v>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
       </c>
       <c r="D11">
         <v>7111</v>
@@ -3845,22 +4896,22 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" t="str">
-        <v>14-02</v>
+      <c r="G11" t="s">
+        <v>71</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <v>Taxe additionnelle sur les ventes immo. Et fonds de comm</v>
-      </c>
-      <c r="C12" t="str">
-        <v>TAVIFC</v>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
       </c>
       <c r="D12">
         <v>7112</v>
@@ -3868,22 +4919,22 @@
       <c r="E12">
         <v>4</v>
       </c>
-      <c r="G12" t="str">
-        <v>14-02</v>
+      <c r="G12" t="s">
+        <v>71</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
-        <v>Droits d'enregistrement sur les actes de sociétés</v>
-      </c>
-      <c r="C13" t="str">
-        <v>DEAS</v>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
       </c>
       <c r="D13">
         <v>7113</v>
@@ -3898,15 +4949,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
-        <v>Droit sur les actes et mutations à titre gratuit</v>
-      </c>
-      <c r="C14" t="str">
-        <v>DAMTG</v>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
       </c>
       <c r="D14">
         <v>7114</v>
@@ -3917,22 +4968,22 @@
       <c r="F14">
         <v>2</v>
       </c>
-      <c r="G14" t="str">
-        <v>14-02</v>
+      <c r="G14" t="s">
+        <v>71</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <v>Taxe proportionnelle spéciale</v>
-      </c>
-      <c r="C15" t="str">
-        <v>TPS</v>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
       </c>
       <c r="D15">
         <v>7115</v>
@@ -3943,22 +4994,22 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" t="str">
-        <v>14-02</v>
+      <c r="G15" t="s">
+        <v>71</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
-        <v>Taxe de publicité foncière</v>
-      </c>
-      <c r="C16" t="str">
-        <v>TPF</v>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
       </c>
       <c r="D16">
         <v>7116</v>
@@ -3969,22 +5020,22 @@
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="G16" t="str">
-        <v>14-02</v>
+      <c r="G16" t="s">
+        <v>71</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="str">
-        <v>Taxe annuelle sur les véhicules de tourisme des entreprises</v>
-      </c>
-      <c r="C17" t="str">
-        <v>TSVTE</v>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
       </c>
       <c r="D17">
         <v>7120</v>
@@ -3995,22 +5046,22 @@
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17" t="str">
-        <v>14-02</v>
+      <c r="G17" t="s">
+        <v>71</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="str">
-        <v>Taxe sur les véhicules à moteur - VIGNETTE</v>
-      </c>
-      <c r="C18" t="str">
-        <v>VIGNETTE</v>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
       </c>
       <c r="D18">
         <v>7130</v>
@@ -4021,22 +5072,22 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" t="str">
-        <v>14-01</v>
+      <c r="G18" t="s">
+        <v>68</v>
       </c>
       <c r="H18">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21</v>
       </c>
-      <c r="B19" t="str">
-        <v>Taxe annuelle sur les téléviseurs</v>
-      </c>
-      <c r="C19" t="str">
-        <v>TAT</v>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
       </c>
       <c r="D19">
         <v>7161</v>
@@ -4048,15 +5099,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>22</v>
       </c>
-      <c r="B20" t="str">
-        <v>Taxe sur la valeur ajoutée</v>
-      </c>
-      <c r="C20" t="str">
-        <v>TVA</v>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
       </c>
       <c r="D20">
         <v>7211</v>
@@ -4067,22 +5118,22 @@
       <c r="F20">
         <v>3</v>
       </c>
-      <c r="G20" t="str">
-        <v>12-81</v>
+      <c r="G20" t="s">
+        <v>55</v>
       </c>
       <c r="H20">
         <v>22</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>23</v>
       </c>
-      <c r="B21" t="str">
-        <v>Taxe sur les transactions</v>
-      </c>
-      <c r="C21" t="str">
-        <v>TST</v>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
       </c>
       <c r="D21">
         <v>7220</v>
@@ -4093,22 +5144,22 @@
       <c r="F21">
         <v>3</v>
       </c>
-      <c r="G21" t="str">
-        <v>12-81</v>
+      <c r="G21" t="s">
+        <v>55</v>
       </c>
       <c r="H21">
         <v>23</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24</v>
       </c>
-      <c r="B22" t="str">
-        <v>Droit d'accise</v>
-      </c>
-      <c r="C22" t="str">
-        <v>DA</v>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
       </c>
       <c r="D22">
         <v>7231</v>
@@ -4119,22 +5170,22 @@
       <c r="F22">
         <v>3</v>
       </c>
-      <c r="G22" t="str">
-        <v>12-81</v>
+      <c r="G22" t="s">
+        <v>55</v>
       </c>
       <c r="H22">
         <v>24</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>26</v>
       </c>
-      <c r="B23" t="str">
-        <v>Impôt de licence sur les alcools et les produits alcoolique</v>
-      </c>
-      <c r="C23" t="str">
-        <v>ILAPA</v>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
       </c>
       <c r="D23">
         <v>7273</v>
@@ -4142,22 +5193,22 @@
       <c r="E23">
         <v>4</v>
       </c>
-      <c r="G23" t="str">
-        <v>14-02</v>
+      <c r="G23" t="s">
+        <v>71</v>
       </c>
       <c r="H23">
         <v>26</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>27</v>
       </c>
-      <c r="B24" t="str">
-        <v>Taxe sur les appareils automatiques</v>
-      </c>
-      <c r="C24" t="str">
-        <v>TAA</v>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
       </c>
       <c r="D24">
         <v>7252</v>
@@ -4169,15 +5220,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>30</v>
       </c>
-      <c r="B25" t="str">
-        <v>Taxe professionnel</v>
-      </c>
-      <c r="C25" t="str">
-        <v>TP</v>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
       </c>
       <c r="D25">
         <v>7271</v>
@@ -4189,15 +5240,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
-      <c r="B26" t="str">
-        <v>Centime additionnelle sur la taxe professionnelle</v>
-      </c>
-      <c r="C26" t="str">
-        <v>CATP</v>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>105</v>
       </c>
       <c r="D26">
         <v>7272</v>
@@ -4209,15 +5260,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
-      <c r="B27" t="str">
-        <v>Taxe sur les assurances</v>
-      </c>
-      <c r="C27" t="str">
-        <v>TA</v>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
       </c>
       <c r="D27">
         <v>7261</v>
@@ -4228,22 +5279,22 @@
       <c r="F27">
         <v>3</v>
       </c>
-      <c r="G27" t="str">
-        <v>14-02</v>
+      <c r="G27" t="s">
+        <v>71</v>
       </c>
       <c r="H27">
         <v>32</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>34</v>
       </c>
-      <c r="B28" t="str">
-        <v>Prélèvemement sur les produits de jeux</v>
-      </c>
-      <c r="C28" t="str">
-        <v>PPJ</v>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
       </c>
       <c r="D28">
         <v>7275</v>
@@ -4258,15 +5309,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>35</v>
       </c>
-      <c r="B29" t="str">
-        <v>Prélèvement spéciaux sur les produits de jeux</v>
-      </c>
-      <c r="C29" t="str">
-        <v>PSJ</v>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
       </c>
       <c r="D29">
         <v>7276</v>
@@ -4281,15 +5332,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>36</v>
       </c>
-      <c r="B30" t="str">
-        <v>Impôt de licenc foraine</v>
-      </c>
-      <c r="C30" t="str">
-        <v>ILF</v>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
       </c>
       <c r="D30">
         <v>7274</v>
@@ -4301,15 +5352,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>37</v>
       </c>
-      <c r="B31" t="str">
-        <v>Prélèvement sur les honoraires des greffiers et notaire</v>
-      </c>
-      <c r="C31" t="str">
-        <v>PHGN</v>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
       </c>
       <c r="D31">
         <v>7263</v>
@@ -4324,15 +5375,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>38</v>
       </c>
-      <c r="B32" t="str">
-        <v>Droit de timbres sur les états et vente de timbre fiscaux</v>
-      </c>
-      <c r="C32" t="str">
-        <v>DTEVTF</v>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
       </c>
       <c r="D32">
         <v>7411</v>
@@ -4343,22 +5394,22 @@
       <c r="F32">
         <v>4</v>
       </c>
-      <c r="G32" t="str">
-        <v>14-02</v>
+      <c r="G32" t="s">
+        <v>71</v>
       </c>
       <c r="H32">
         <v>28</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
-      <c r="B33" t="str">
-        <v>Droit de timbre casino</v>
-      </c>
-      <c r="C33" t="str">
-        <v>DTC</v>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
       </c>
       <c r="D33">
         <v>7412</v>
@@ -4366,22 +5417,22 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="G33" t="str">
-        <v>14-02</v>
+      <c r="G33" t="s">
+        <v>71</v>
       </c>
       <c r="H33">
         <v>29</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>40</v>
       </c>
-      <c r="B34" t="str">
-        <v>Droit de timbre sur visa (Passeport)</v>
-      </c>
-      <c r="C34" t="str">
-        <v>DTV</v>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="s">
+        <v>121</v>
       </c>
       <c r="D34">
         <v>7413</v>
@@ -4392,22 +5443,22 @@
       <c r="F34">
         <v>4</v>
       </c>
-      <c r="G34" t="str">
-        <v>14-02</v>
+      <c r="G34" t="s">
+        <v>71</v>
       </c>
       <c r="H34">
         <v>40</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>41</v>
       </c>
-      <c r="B35" t="str">
-        <v>Taxe sur les spéctacles</v>
-      </c>
-      <c r="C35" t="str">
-        <v>TS</v>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
       </c>
       <c r="D35">
         <v>7414</v>
@@ -4418,22 +5469,22 @@
       <c r="F35">
         <v>4</v>
       </c>
-      <c r="G35" t="str">
-        <v>14-02</v>
+      <c r="G35" t="s">
+        <v>71</v>
       </c>
       <c r="H35">
         <v>41</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>42</v>
       </c>
-      <c r="B36" t="str">
-        <v>Intérêt sur crédit de droit</v>
-      </c>
-      <c r="C36" t="str">
-        <v>ICD</v>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>125</v>
       </c>
       <c r="D36">
         <v>7420</v>
@@ -4448,15 +5499,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>43</v>
       </c>
-      <c r="B37" t="str">
-        <v>Amendes fiscales</v>
-      </c>
-      <c r="C37" t="str">
-        <v>AF</v>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
       </c>
       <c r="D37">
         <v>7431</v>
@@ -4464,22 +5515,22 @@
       <c r="E37">
         <v>5</v>
       </c>
-      <c r="G37" t="str">
-        <v>14-02</v>
+      <c r="G37" t="s">
+        <v>71</v>
       </c>
       <c r="H37">
         <v>43</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>44</v>
       </c>
-      <c r="B38" t="str">
-        <v>Penalité de retard</v>
-      </c>
-      <c r="C38" t="str">
-        <v>PR</v>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
       </c>
       <c r="D38">
         <v>7432</v>
@@ -4490,22 +5541,22 @@
       <c r="F38">
         <v>4</v>
       </c>
-      <c r="G38" t="str">
-        <v>14-01</v>
+      <c r="G38" t="s">
+        <v>68</v>
       </c>
       <c r="H38">
         <v>44</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>45</v>
       </c>
-      <c r="B39" t="str">
-        <v>Taxe Spéciale pour le Jeunesse et Sport</v>
-      </c>
-      <c r="C39" t="str">
-        <v>TSJS</v>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
       </c>
       <c r="D39">
         <v>7481</v>
@@ -4520,494 +5571,520 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>60</v>
       </c>
-      <c r="B40" t="str">
-        <v>Acompte provisionnel de l'impôt sur les revenus</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>61</v>
       </c>
-      <c r="B41" t="str">
-        <v>Impôts sur les revenus</v>
+      <c r="B41" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H41"/>
+    <ignoredError sqref="A1:H41" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>code</v>
-      </c>
-      <c r="B1" t="str">
-        <v>abreviation</v>
-      </c>
-      <c r="C1" t="str">
-        <v>libelle</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
-        <v>EI</v>
-      </c>
-      <c r="C2" t="str">
-        <v>ENTREPRISE INDIVIDUELLE</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="str">
-        <v>SNC</v>
-      </c>
-      <c r="C3" t="str">
-        <v>STE EN NOM COLLECTIF</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="str">
-        <v>SCS</v>
-      </c>
-      <c r="C4" t="str">
-        <v>STE EN COMMENDITE SIMPLE</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="str">
-        <v>SCA</v>
-      </c>
-      <c r="C5" t="str">
-        <v>STE EN COMTE PAR ACTION</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="str">
-        <v>SA</v>
-      </c>
-      <c r="C6" t="str">
-        <v>STE ANONYME</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="str">
-        <v>SARL</v>
-      </c>
-      <c r="C7" t="str">
-        <v>STE A RESPTE LIMITEE</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="str">
-        <v>SEM</v>
-      </c>
-      <c r="C8" t="str">
-        <v>STE D'ECONOMIE MIXTE</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="str">
-        <v>SIN</v>
-      </c>
-      <c r="C9" t="str">
-        <v>STE D'INTERET NATIONAL</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="str">
-        <v>SAE</v>
-      </c>
-      <c r="C10" t="str">
-        <v>STE ANONYME D'ETAT</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="str">
-        <v>ES</v>
-      </c>
-      <c r="C11" t="str">
-        <v>ENTREPRISE SOCIALISTE</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="str">
-        <v>EPIC</v>
-      </c>
-      <c r="C12" t="str">
-        <v>ETS PUBLIC A CAR IND &amp; CO</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="str">
-        <v>SCI</v>
-      </c>
-      <c r="C13" t="str">
-        <v>STE CIVILE IMMOBILIERE</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="str">
-        <v>COO</v>
-      </c>
-      <c r="C14" t="str">
-        <v>COOPERATIVE</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="str">
-        <v>ASS</v>
-      </c>
-      <c r="C15" t="str">
-        <v>ASSOCIATION</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="str">
-        <v>ONG</v>
-      </c>
-      <c r="C16" t="str">
-        <v>ORGANISME NON GOUVERNEMENTAL</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="str">
-        <v>EPST</v>
-      </c>
-      <c r="C17" t="str">
-        <v>ETS PUBLIC SCIENT TECHNI</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="str">
-        <v>PJ</v>
-      </c>
-      <c r="C18" t="str">
-        <v>PROJET</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="str">
-        <v>EURL</v>
-      </c>
-      <c r="C19" t="str">
-        <v>ESE UNIPERS A RESP LIMITE</v>
+      <c r="B19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C19"/>
+    <ignoredError sqref="A1:C19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>code</v>
-      </c>
-      <c r="C1" t="str">
-        <v>libelle</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>589</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Mangamaro</v>
-      </c>
-    </row>
-    <row r="3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>468</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Belobaka</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>216</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Mahabibo Ambony</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>0101</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Mahanjaga be</v>
+      <c r="D5" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError sqref="A5 A1 A2 A3 A4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>numero</v>
-      </c>
-      <c r="C1" t="str">
-        <v>designation</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>36</v>
       </c>
-      <c r="C2" t="str">
-        <v>PIECE</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>37</v>
       </c>
-      <c r="C3" t="str">
-        <v>PLACE</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>42</v>
       </c>
-      <c r="C4" t="str">
-        <v>AUTRE</v>
+      <c r="C4" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError sqref="A1:C4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>numero</v>
-      </c>
-      <c r="C1" t="str">
-        <v>operateur</v>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C1"/>
+    <ignoredError sqref="A1:C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>numero</v>
-      </c>
-      <c r="B1" t="str">
-        <v>periodicite</v>
-      </c>
-      <c r="C1" t="str">
-        <v>titre</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="C2" t="str">
-        <v>MOIS</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>BIMESTRIEL</v>
-      </c>
-      <c r="C3" t="str">
-        <v>BIMESTRE</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>TRIMESTRIEL</v>
-      </c>
-      <c r="C4" t="str">
-        <v>TRIMESTRE</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>SEMESTRIEL</v>
-      </c>
-      <c r="C5" t="str">
-        <v>SEMESTRE</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>ANNUEL</v>
-      </c>
-      <c r="C6" t="str">
-        <v>ANNEE</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>AUTRE</v>
+      <c r="B7" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/fixtures/code.xlsx
+++ b/backend/fixtures/code.xlsx
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -837,13 +837,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" t="str">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="str">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="str">
         <v>5</v>
       </c>
       <c r="D11" t="str">
@@ -854,6 +854,12 @@
       </c>
       <c r="F11" t="str">
         <v>S</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -930,17 +936,43 @@
         <v>SEMESTRIEL</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>10</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2</v>
+      </c>
+      <c r="D16" t="str">
+        <v>article001</v>
+      </c>
+      <c r="E16" t="str">
+        <v>MENSUEL</v>
+      </c>
+      <c r="F16" t="str">
+        <v>M</v>
+      </c>
+      <c r="G16" t="str">
+        <v>article004</v>
+      </c>
+      <c r="H16" t="str">
+        <v>article1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H16"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -978,10 +1010,21 @@
         <v>31/01</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>5</v>
+      </c>
+      <c r="B4" t="str">
+        <v>27</v>
+      </c>
+      <c r="C4" t="str">
+        <v>31/12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4737,7 +4780,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4756,66 +4799,10 @@
         <v>libelle</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Mangamaro</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Belobaka</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Mahabibo Ambony</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Mahanjaga be</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4881,7 +4868,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4897,10 +4884,21 @@
         <v>operateur</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>0345739058</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Telma</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/backend/fixtures/code.xlsx
+++ b/backend/fixtures/code.xlsx
@@ -51,8 +51,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -83,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,178 +424,178 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>raison_social</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>nom_commercial</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
         <v>BANK OF AFRICA</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <v>BOA-BTM</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <v>BANKY FAMPANDROSOA</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <v>BFV-SG</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <v>BNI CREDIT LYONNAIS</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>BNI CL</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <v>BANQUE MALGACHE DE</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <v>BMOI</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <v>UNION COMMERCIAL BANK</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <v>UCB</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <v>BANQUE CENTRAL DE</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <v>BCRM</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <v>CHEQUE TRESOR</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <v>TRESOR</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <v>CENTRE DE CHEQUES P</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <v>CCP</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="1" t="str">
         <v>SBM</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <v>SBM</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <v>COMPAGNIE MALGACHE</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <v>CMB</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <v>BANQUE DES MASCARE</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
         <v>BMM</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="1" t="str">
         <v>BANQUE INDUSTRIELLE</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="1" t="str">
         <v>BICM</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="1" t="str">
         <v>ACCES BANQUE MADAGASCAR</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="1" t="str">
         <v>ABM</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="1" t="str">
         <v>BGFIBank Madagascar</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="1" t="str">
         <v>BGFIBank</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="1" t="str">
         <v>Microcred Banque Madagascar</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="1" t="str">
         <v>MBM</v>
       </c>
     </row>
@@ -607,365 +609,342 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>numero_impot</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>choix</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="1" t="str">
         <v>obligation</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="1" t="str">
         <v>periodicite</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="1" t="str">
         <v>option</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" s="1" t="str">
         <v>taxation</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" s="1" t="str">
         <v>penalite</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>22</v>
-      </c>
-      <c r="D2" t="str">
-        <v>article 06,01,15</v>
-      </c>
-      <c r="E2" t="str">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>article 01,01,01</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <v>ANNUEL</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <v>article 01,03,12</v>
+      </c>
+      <c r="E3" s="1" t="str">
         <v>MENSUEL</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F3" s="1" t="str">
         <v>M</v>
       </c>
-      <c r="G2" t="str">
-        <v>article 06,01028</v>
-      </c>
-      <c r="H2" t="str">
-        <v>article 06</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
+      <c r="H3" s="1" t="str">
+        <v>article 01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v>article 03,09,02</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>ANNUEL</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <v>article 01,04,18</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <v>article 01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>article 03,09,03</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>TRIMESTRIEL</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <v>T</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <v>article 04,02,08</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <v>ANNUEL</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <v>article 08,05,02</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <v>ANNUEL</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="str">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <v>article 01,03,12</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <v>SEMESTRIEL</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <v>S</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <v>article 04,04,07</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <v>BIMESTRIEL</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <v>article 04,04,07</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <v>TRIMESTRIEL</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <v>T</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <v>article 04,04,07</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <v>SEMESTRIEL</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <v>S</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <v>SEMESTRIEL</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="str">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="str">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>61</v>
-      </c>
-      <c r="C3">
-        <v>61</v>
-      </c>
-      <c r="D3" t="str">
-        <v>article 01,01,01</v>
-      </c>
-      <c r="E3" t="str">
-        <v>ANNUEL</v>
-      </c>
-      <c r="F3" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="D13" s="1" t="str">
+        <v>article001</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <v>MENSUEL</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <v>M</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <v>article004</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <v>article1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="str">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D14" s="1" t="str">
+        <v>article 01 , 02</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <v>MENSUEL</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <v>M</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <v>article 01</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <v>article 01 , 02</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="str">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="str">
         <v>5</v>
       </c>
-      <c r="D4" t="str">
-        <v>article 01,03,12</v>
-      </c>
-      <c r="E4" t="str">
+      <c r="C15" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <v>article 04,09</v>
+      </c>
+      <c r="E15" s="1" t="str">
         <v>MENSUEL</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F15" s="1" t="str">
         <v>M</v>
       </c>
-      <c r="H4" t="str">
-        <v>article 01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>24</v>
-      </c>
-      <c r="D5" t="str">
-        <v>article 03,01,06</v>
-      </c>
-      <c r="E5" t="str">
-        <v>BIMESTRIEL</v>
-      </c>
-      <c r="F5" t="str">
-        <v>B</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6" t="str">
-        <v>article 01,04,20</v>
-      </c>
-      <c r="E6" t="str">
-        <v>ANNUEL</v>
-      </c>
-      <c r="F6" t="str">
-        <v>A</v>
-      </c>
-      <c r="H6" t="str">
-        <v>article 01</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="str">
-        <v>article 03,09,02</v>
-      </c>
-      <c r="E7" t="str">
-        <v>ANNUEL</v>
-      </c>
-      <c r="F7" t="str">
-        <v>A</v>
-      </c>
-      <c r="G7" t="str">
-        <v>article 01,04,18</v>
-      </c>
-      <c r="H7" t="str">
-        <v>article 01</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>26</v>
-      </c>
-      <c r="D8" t="str">
-        <v>article 03,09,03</v>
-      </c>
-      <c r="E8" t="str">
-        <v>TRIMESTRIEL</v>
-      </c>
-      <c r="F8" t="str">
-        <v>T</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-      <c r="D9" t="str">
-        <v>article 04,02,08</v>
-      </c>
-      <c r="E9" t="str">
-        <v>ANNUEL</v>
-      </c>
-      <c r="F9" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>32</v>
-      </c>
-      <c r="D10" t="str">
-        <v>article 08,05,02</v>
-      </c>
-      <c r="E10" t="str">
-        <v>ANNUEL</v>
-      </c>
-      <c r="F10" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <v>5</v>
-      </c>
-      <c r="C11" t="str">
-        <v>5</v>
-      </c>
-      <c r="D11" t="str">
-        <v>article 01,03,12</v>
-      </c>
-      <c r="E11" t="str">
-        <v>SEMESTRIEL</v>
-      </c>
-      <c r="F11" t="str">
-        <v>S</v>
-      </c>
-      <c r="G11" t="str">
-        <v/>
-      </c>
-      <c r="H11" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>60</v>
-      </c>
-      <c r="C12">
-        <v>60</v>
-      </c>
-      <c r="D12" t="str">
-        <v>article 04,04,07</v>
-      </c>
-      <c r="E12" t="str">
-        <v>BIMESTRIEL</v>
-      </c>
-      <c r="F12" t="str">
-        <v>B</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>65</v>
-      </c>
-      <c r="C13">
-        <v>65</v>
-      </c>
-      <c r="D13" t="str">
-        <v>article 04,04,07</v>
-      </c>
-      <c r="E13" t="str">
-        <v>TRIMESTRIEL</v>
-      </c>
-      <c r="F13" t="str">
-        <v>T</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>60</v>
-      </c>
-      <c r="C14">
-        <v>60</v>
-      </c>
-      <c r="D14" t="str">
-        <v>article 04,04,07</v>
-      </c>
-      <c r="E14" t="str">
-        <v>SEMESTRIEL</v>
-      </c>
-      <c r="F14" t="str">
-        <v>S</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>63</v>
-      </c>
-      <c r="C15">
-        <v>63</v>
-      </c>
-      <c r="E15" t="str">
-        <v>SEMESTRIEL</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
-        <v>10</v>
-      </c>
-      <c r="C16" t="str">
-        <v>2</v>
-      </c>
-      <c r="D16" t="str">
-        <v>article001</v>
-      </c>
-      <c r="E16" t="str">
-        <v>MENSUEL</v>
-      </c>
-      <c r="F16" t="str">
-        <v>M</v>
-      </c>
-      <c r="G16" t="str">
-        <v>article004</v>
-      </c>
-      <c r="H16" t="str">
-        <v>article1</v>
+      <c r="G15" s="1" t="str">
+        <v>article 04</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <v>article 09</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H15"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -978,46 +957,46 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>numero</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>cloture</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>29</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <v>30/04</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>30</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <v>31/01</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" s="1" t="str">
         <v>5</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <v>27</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>31/12</v>
       </c>
     </row>
@@ -1031,691 +1010,613 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>numero_auto</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>periode</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="1" t="str">
         <v>desc_mois</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="1" t="str">
         <v>titre_per</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="1" t="str">
         <v>p1</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" s="1" t="str">
         <v>p2</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" s="1" t="str">
         <v>id_clo</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="str">
         <v>MENSUEL</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="1" t="str">
         <v>JANV</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="1" t="str">
         <v>JANVIER</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <v>MENSUEL</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="1" t="str">
         <v>FEV</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="1" t="str">
         <v>FEVRIER</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>MENSUEL</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="1" t="str">
         <v>MAR</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="1" t="str">
         <v>MARS</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <v>MENSUEL</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="1" t="str">
         <v>AVR</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="1" t="str">
         <v>AVRIL</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <v>MENSUEL</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="1" t="str">
         <v>MAI</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="1" t="str">
         <v>MAI</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <v>MENSUEL</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="1" t="str">
         <v>JUIN</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="1" t="str">
         <v>JUIN</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <v>MENSUEL</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="1" t="str">
         <v>JUIL</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="1" t="str">
         <v>JUILLET</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <v>MENSUEL</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="1" t="str">
         <v>AOUT</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" s="1" t="str">
         <v>AOUT</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>8</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <v>MENSUEL</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="1" t="str">
         <v>SEPT</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="1" t="str">
         <v>SEPTEMBRE</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>9</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <v>MENSUEL</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="1" t="str">
         <v>OCT</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="1" t="str">
         <v>OCTOBRE</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
         <v>MENSUEL</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="1" t="str">
         <v>NOV</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="1" t="str">
         <v>NOVEMBRE</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>11</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>11</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="1" t="str">
         <v>MENSUEL</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" s="1" t="str">
         <v>DEC</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13" s="1" t="str">
         <v>DECEMBRE</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>12</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>12</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="str">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="str">
         <v>SEMESTRIEL</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="1" t="str">
         <v>JANV-JUIN</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" s="1" t="str">
         <v>SEMESTRE</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <v>6</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="1" t="str">
         <v>SEMESTRIEL</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" s="1" t="str">
         <v>JUIL-DEC</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" s="1" t="str">
         <v>SEMESTRE</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>7</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>12</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="str">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="str">
         <v>TRIMESTRIEL</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="1" t="str">
         <v>JAN-MAR</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" s="1" t="str">
         <v>TRIMESTRE</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
         <v>3</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>2</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="1" t="str">
         <v>TRIMESTRIEL</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" s="1" t="str">
         <v>AVR-JUIN</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" s="1" t="str">
         <v>TRIMESTRE</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>4</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>6</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>3</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="1" t="str">
         <v>TRIMESTRIEL</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" s="1" t="str">
         <v>JUIL-SEPT</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18" s="1" t="str">
         <v>TRIMESTRE</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>7</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>9</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>4</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="1" t="str">
         <v>TRIMESTRIEL</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="1" t="str">
         <v>OCT-DEC</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" s="1" t="str">
         <v>TRIMESTRE</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>10</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>12</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="str">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="str">
         <v>BIMESTRIEL</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" s="1" t="str">
         <v>JANV-FEV</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" s="1" t="str">
         <v>BIMESTRE</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="1" t="str">
         <v>BIMESTRIEL</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="1" t="str">
         <v>MAR-AVR</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" s="1" t="str">
         <v>BIMESTRE</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>4</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="str">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="str">
         <v>BIMESTRIEL</v>
       </c>
-      <c r="D22" t="str">
-        <v>MAI-JUIN</v>
-      </c>
-      <c r="E22" t="str">
+      <c r="D22" s="1" t="str">
+        <v>JUIL-AOUT</v>
+      </c>
+      <c r="E22" s="1" t="str">
         <v>BIMESTRE</v>
       </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22">
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="str">
-        <v>BIMESTRIEL</v>
-      </c>
-      <c r="D23" t="str">
-        <v>JUIL-AOUT</v>
-      </c>
-      <c r="E23" t="str">
-        <v>BIMESTRE</v>
-      </c>
-      <c r="F23">
-        <v>7</v>
-      </c>
-      <c r="G23">
-        <v>8</v>
-      </c>
-      <c r="H23">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24" t="str">
-        <v>BIMESTRIEL</v>
-      </c>
-      <c r="D24" t="str">
-        <v>SEPT-OCT</v>
-      </c>
-      <c r="E24" t="str">
-        <v>BIMESTRE</v>
-      </c>
-      <c r="F24">
-        <v>9</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25" t="str">
-        <v>BIMESTRIEL</v>
-      </c>
-      <c r="D25" t="str">
-        <v>NOV-DEC</v>
-      </c>
-      <c r="E25" t="str">
-        <v>BIMESTRE</v>
-      </c>
-      <c r="F25">
-        <v>11</v>
-      </c>
-      <c r="G25">
+      <c r="A23" s="1">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <v>ANNUEL</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <v>JAN-DEC</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <v>ANNEE</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
         <v>12</v>
       </c>
-      <c r="H25">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="str">
-        <v>ANNUEL</v>
-      </c>
-      <c r="D26" t="str">
-        <v>JAN-DEC</v>
-      </c>
-      <c r="E26" t="str">
-        <v>ANNEE</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>12</v>
-      </c>
-      <c r="H26">
+      <c r="H23" s="1">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H23"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1728,321 +1629,321 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>code</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>libelle</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>nature</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="1" t="str">
         <v>INCONNU</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <v>C</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="str">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="str">
         <v>ABATS D'ANIMAUX (voir Boyaux)</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <v>C</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>6</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <v>ABATTOIR INDUSTRIEL (Exploitant)</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>I</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>11</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <v>ACCUMULATEURS (Fabricant)</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <v>I</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>51</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <v>ACCUMULATEURS (Réparateur et chargeur)</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <v>PS</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>23</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <v>Acupuncture (Voir Médecin)</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <v>PL</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>25</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <v>Aérobie (tenant un centre)</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <v>PS</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>29</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <v>AEROPORT (gestion, exploitation, rehabiliitation)</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <v>PS</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>31</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="1" t="str">
         <v>AFFAIRES (Agent)</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <v>PL</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>32</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <v>AGRICULTURES (Exploitant)</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <v>AGRO</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>41</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <v>ALCOOL DE MENTHE (Fabricant d)</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
         <v>I</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>51</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="1" t="str">
         <v>ALIMENTS DU BETAILS (Fabricant d)</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="1" t="str">
         <v>I</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>61</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="1" t="str">
         <v>ALIMENTS DE BETAIL (Marchand d)</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="1" t="str">
         <v>I</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>62</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="1" t="str">
         <v>ALUMINIUM (Fabricant d'objets en)</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="1" t="str">
         <v>I</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>72</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="1" t="str">
         <v>APPAREILS AUTOMATIQUE (Exploitant d)</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="1" t="str">
         <v>PS</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>72</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="1" t="str">
         <v>APPAREILS DE(Loueur d) MUSIQUE, POSTE</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="1" t="str">
         <v>PS</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>81</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="1" t="str">
         <v>APPAREILS ET APPAREILLAGES ELECTRIQUES E</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="1" t="str">
         <v>C</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>91</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="1" t="str">
         <v>APPAREILS OU MATERIELS MECANIQUES (Loueur d)</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="1" t="str">
         <v>C</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>101</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" s="1" t="str">
         <v>APP OU MAT MECA IND OU AGR (Marchand d)</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="1" t="str">
         <v>C</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>111</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="1" t="str">
         <v>APP OU MAT POUR IND &amp; GRO TRAV (Loueur d)</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="1" t="str">
         <v>C</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>121</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="1" t="str">
         <v>APPAREILS DOMESTIQUES (Marchand d)</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="1" t="str">
         <v>PS</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>131</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23" s="1" t="str">
         <v>APP ELEC,MECA,DOME (Montage, pose, entretien)</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="1" t="str">
         <v>PS</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>135</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24" s="1" t="str">
         <v>APP ELEC,MECA OU DOM (Fabricand d)</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="1" t="str">
         <v>I</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>141</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25" s="1" t="str">
         <v>APPROVISIONNEUR DE NAVIRES</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="1" t="str">
         <v>C</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>143</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26" s="1" t="str">
         <v>ARBRES (Entrepreneur d'abattage d)</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="1" t="str">
         <v>I</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>151</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" s="1" t="str">
         <v>ARCHITECTE</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="1" t="str">
         <v>PL</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>161</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B28" s="1" t="str">
         <v>ARMES-ART SPORT-CHASSE (Marchand) en gros</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="1" t="str">
         <v>C</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>162</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29" s="1" t="str">
         <v>ARMES-ART SPORT-CHASSE (Marchand) AU DETAIL</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="1" t="str">
         <v>C</v>
       </c>
     </row>
@@ -2062,50 +1963,50 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>numero</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>libelle</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
         <v>BUDGET GENERAL</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <v>BUDGET PROVINCE AUTONOME</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <v>BUDGET COMMUNAL</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <v>BUDGET REGIONAL</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <v>HORS BUDGET</v>
       </c>
     </row>
@@ -2125,104 +2026,104 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>impot</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>budget</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="1" t="str">
         <v>taux</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="1" t="str">
         <v>pcop</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>39</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>7023</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>60</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>7023</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>24</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>99</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>7231</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>7023</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>24</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="str">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="str">
         <v>463622-2</v>
       </c>
     </row>
@@ -2242,66 +2143,66 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>numero_classe</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>libelle</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
         <v>Impôts sur les bénéfices - Revenus</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <v>Impôts sur le patrimoine</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <v>Impôts sur les biens et services</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <v>Autres recettes fiscales</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <v>Au profit du province autonome</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <v>Au profit communal</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <v>Hors budget</v>
       </c>
     </row>
@@ -2321,18 +2222,18 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>code</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>libelle</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
         <v>MED</v>
       </c>
     </row>
@@ -2352,46 +2253,46 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>type_prevision</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>libelle</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
         <v>LF</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <v>Loi de Finances</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <v>LFR</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <v>Loi de Finances Rectificatives</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <v>PF</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>Prévision Reprogrammé</v>
       </c>
     </row>
@@ -2411,72 +2312,72 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>date</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>jour</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="1" t="str">
         <v>motif</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
         <v>01/01/2012</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <v>Dimanche</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="1" t="str">
         <v>JOUR DE L'AN</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <v>16/01/2012</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <v>Lundi</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="1" t="str">
         <v>FETE NATIONAL</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <v>09/04/2012</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>Lundi</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="1" t="str">
         <v>LUNDI DE PAQUES</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <v>19/09/2012</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <v>Mercredi</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="1" t="str">
         <v>FERIE</v>
       </c>
     </row>
@@ -2496,528 +2397,537 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>numero_impot</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="1" t="str">
         <v>date_debut_paiement</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="1" t="str">
         <v>date_fin_paiement</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="1" t="str">
         <v>annee</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="1" t="str">
         <v>01/02/</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="1" t="str">
         <v>15/02/</v>
       </c>
+      <c r="F5" s="1">
+        <v>2012</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="1" t="str">
         <v>01/01/</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="1" t="str">
         <v>31/03/</v>
       </c>
+      <c r="F6" s="1">
+        <v>2012</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="1" t="str">
         <v>01/01/</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="1" t="str">
         <v>15/05/</v>
       </c>
+      <c r="F7" s="1">
+        <v>2013</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:F97"/>
   </ignoredErrors>
@@ -3032,27 +2942,27 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>anne_exercice</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>mois_exercice</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="1" t="str">
         <v>type_prevision</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="1" t="str">
         <v>numero_impot</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="1" t="str">
         <v>montant</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:F1"/>
   </ignoredErrors>
@@ -3067,505 +2977,505 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>numero_impot</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>paye_amende</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="1" t="str">
         <v>paye_penalite</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="1" t="str">
         <v>valeur_amende</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="1" t="str">
         <v>taux_penalite</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:F96"/>
   </ignoredErrors>
@@ -3580,969 +3490,969 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>numero_impot</v>
       </c>
-      <c r="B1" t="str">
-        <v>libellé</v>
-      </c>
-      <c r="C1" t="str">
+      <c r="B1" s="1" t="str">
+        <v>libelle</v>
+      </c>
+      <c r="C1" s="1" t="str">
         <v>abreviation</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="1" t="str">
         <v>pcop</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="1" t="str">
         <v>numero_budget</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="1" t="str">
         <v>numero_classes</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" s="1" t="str">
         <v>chapitre</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" s="1" t="str">
         <v>groupe_impot</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
         <v>Acompte prov SARL et autres que SA</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <v>APIBS</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>7012</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="str">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <v>12-81</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <v>Acompte provisionnel de l'impôt sur les revenus non sa</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <v>APIRNS</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>7021</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="str">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="str">
         <v>12-81</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <v>IBS SARL et autres que SA</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>IBS</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>7012</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="str">
         <v>12-81</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <v>Impôt sur les revenus non salariaux</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <v>IRNS</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>7021</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="str">
         <v>12-81</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <v>Impôt sur les revenus salariaux</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <v>IRSA</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>7022</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="str">
         <v>12-81</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <v>Impôt synthétique</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <v>IS</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>7023</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="str">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <v>12-81</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <v>Impôt sur les revenus des capitaux mobiliers</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <v>IRCM</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>7030</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="str">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <v>14-01</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <v>Impôt sur les plus values immobilièrs</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <v>IPVI</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>7040</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="str">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <v>14-02</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="1" t="str">
         <v>Taxes forfaitaire sur les transferts</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <v>TFT</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>7050</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="H10">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <v>Droit sur les actes et mutations à titre onéreux</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <v>DAMTO</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>7111</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11" s="1" t="str">
         <v>14-02</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <v>Taxe additionnelle sur les ventes immo. Et fonds de comm</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
         <v>TAVIFC</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>7112</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" s="1" t="str">
         <v>14-02</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="1" t="str">
         <v>Droits d'enregistrement sur les actes de sociétés</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="1" t="str">
         <v>DEAS</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>7113</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="1" t="str">
         <v>Droit sur les actes et mutations à titre gratuit</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="1" t="str">
         <v>DAMTG</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>7114</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G14" s="1" t="str">
         <v>14-02</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="1" t="str">
         <v>Taxe proportionnelle spéciale</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="1" t="str">
         <v>TPS</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>7115</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G15" s="1" t="str">
         <v>14-02</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="1" t="str">
         <v>Taxe de publicité foncière</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="1" t="str">
         <v>TPF</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>7116</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G16" s="1" t="str">
         <v>14-02</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="1" t="str">
         <v>Taxe annuelle sur les véhicules de tourisme des entreprises</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="1" t="str">
         <v>TSVTE</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>7120</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17" s="1" t="str">
         <v>14-02</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="1" t="str">
         <v>Taxe sur les véhicules à moteur - VIGNETTE</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="1" t="str">
         <v>VIGNETTE</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>7130</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
         <v>2</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G18" s="1" t="str">
         <v>14-01</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>21</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="1" t="str">
         <v>Taxe annuelle sur les téléviseurs</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="1" t="str">
         <v>TAT</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>7161</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>4</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>22</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" s="1" t="str">
         <v>Taxe sur la valeur ajoutée</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="1" t="str">
         <v>TVA</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>7211</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
         <v>3</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20" s="1" t="str">
         <v>12-81</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>23</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="1" t="str">
         <v>Taxe sur les transactions</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="1" t="str">
         <v>TST</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>7220</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G21" s="1" t="str">
         <v>12-81</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>24</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="1" t="str">
         <v>Droit d'accise</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="1" t="str">
         <v>DA</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>7231</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22" s="1" t="str">
         <v>12-81</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>26</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23" s="1" t="str">
         <v>Impôt de licence sur les alcools et les produits alcoolique</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="1" t="str">
         <v>ILAPA</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>7273</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>4</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G23" s="1" t="str">
         <v>14-02</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>27</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24" s="1" t="str">
         <v>Taxe sur les appareils automatiques</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="1" t="str">
         <v>TAA</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>7252</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>4</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>30</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25" s="1" t="str">
         <v>Taxe professionnel</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="1" t="str">
         <v>TP</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>7271</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>4</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>31</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26" s="1" t="str">
         <v>Centime additionnelle sur la taxe professionnelle</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="1" t="str">
         <v>CATP</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>7272</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>4</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>32</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" s="1" t="str">
         <v>Taxe sur les assurances</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="1" t="str">
         <v>TA</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>7261</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
         <v>3</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27" s="1" t="str">
         <v>14-02</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>34</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B28" s="1" t="str">
         <v>Prélèvemement sur les produits de jeux</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="1" t="str">
         <v>PPJ</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>7275</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
         <v>3</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>35</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29" s="1" t="str">
         <v>Prélèvement spéciaux sur les produits de jeux</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="1" t="str">
         <v>PSJ</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>7276</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
         <v>3</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>36</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30" s="1" t="str">
         <v>Impôt de licenc foraine</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="1" t="str">
         <v>ILF</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>7274</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>4</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>37</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B31" s="1" t="str">
         <v>Prélèvement sur les honoraires des greffiers et notaire</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31" s="1" t="str">
         <v>PHGN</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>7263</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
         <v>3</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>38</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B32" s="1" t="str">
         <v>Droit de timbres sur les états et vente de timbre fiscaux</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32" s="1" t="str">
         <v>DTEVTF</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>7411</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
         <v>4</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G32" s="1" t="str">
         <v>14-02</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>39</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33" s="1" t="str">
         <v>Droit de timbre casino</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33" s="1" t="str">
         <v>DTC</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>7412</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="str">
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="str">
         <v>14-02</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>40</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B34" s="1" t="str">
         <v>Droit de timbre sur visa (Passeport)</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="1" t="str">
         <v>DTV</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>7413</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
         <v>4</v>
       </c>
-      <c r="G34" t="str">
+      <c r="G34" s="1" t="str">
         <v>14-02</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>41</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B35" s="1" t="str">
         <v>Taxe sur les spéctacles</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35" s="1" t="str">
         <v>TS</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>7414</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
         <v>4</v>
       </c>
-      <c r="G35" t="str">
+      <c r="G35" s="1" t="str">
         <v>14-02</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>41</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>42</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36" s="1" t="str">
         <v>Intérêt sur crédit de droit</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36" s="1" t="str">
         <v>ICD</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>7420</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
         <v>4</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>43</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37" s="1" t="str">
         <v>Amendes fiscales</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37" s="1" t="str">
         <v>AF</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>7431</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>5</v>
       </c>
-      <c r="G37" t="str">
+      <c r="G37" s="1" t="str">
         <v>14-02</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>44</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B38" s="1" t="str">
         <v>Penalité de retard</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38" s="1" t="str">
         <v>PR</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>7432</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
         <v>4</v>
       </c>
-      <c r="G38" t="str">
+      <c r="G38" s="1" t="str">
         <v>14-01</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>45</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39" s="1" t="str">
         <v>Taxe Spéciale pour le Jeunesse et Sport</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="1" t="str">
         <v>TSJS</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>7481</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>4</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>7</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>60</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40" s="1" t="str">
         <v>Acompte provisionnel de l'impôt sur les revenus</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>61</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41" s="1" t="str">
         <v>Impôts sur les revenus</v>
       </c>
     </row>
@@ -4562,211 +4472,211 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>code</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>abreviation</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>libelle</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="1" t="str">
         <v>EI</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <v>ENTREPRISE INDIVIDUELLE</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="str">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="str">
         <v>SNC</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <v>STE EN NOM COLLECTIF</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <v>SCS</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>STE EN COMMENDITE SIMPLE</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <v>SCA</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <v>STE EN COMTE PAR ACTION</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <v>SA</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <v>STE ANONYME</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <v>SARL</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <v>STE A RESPTE LIMITEE</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <v>SEM</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <v>STE D'ECONOMIE MIXTE</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <v>SIN</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <v>STE D'INTERET NATIONAL</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="1" t="str">
         <v>SAE</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <v>STE ANONYME D'ETAT</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <v>ES</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <v>ENTREPRISE SOCIALISTE</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <v>EPIC</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
         <v>ETS PUBLIC A CAR IND &amp; CO</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="1" t="str">
         <v>SCI</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="1" t="str">
         <v>STE CIVILE IMMOBILIERE</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="1" t="str">
         <v>COO</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="1" t="str">
         <v>COOPERATIVE</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="1" t="str">
         <v>ASS</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="1" t="str">
         <v>ASSOCIATION</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="1" t="str">
         <v>ONG</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="1" t="str">
         <v>ORGANISME NON GOUVERNEMENTAL</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="1" t="str">
         <v>EPST</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="1" t="str">
         <v>ETS PUBLIC SCIENT TECHNI</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="1" t="str">
         <v>PJ</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="1" t="str">
         <v>PROJET</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="1" t="str">
         <v>EURL</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="1" t="str">
         <v>ESE UNIPERS A RESP LIMITE</v>
       </c>
     </row>
@@ -4780,29 +4690,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>arrondisement</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>fokontany</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="1" t="str">
         <v>libelle</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>Belobaka</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <v>Ambohimandamina</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4815,46 +4753,46 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>numero</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>designation</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>36</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <v>PIECE</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>37</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <v>PLACE</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>42</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>AUTRE</v>
       </c>
     </row>
@@ -4874,24 +4812,24 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>numero</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>operateur</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
+      <c r="A2" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
         <v>0345739058</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <v>Telma</v>
       </c>
     </row>
@@ -4911,76 +4849,76 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>numero</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>periodicite</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>titre</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
         <v>MENSUEL</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <v>MOIS</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <v>BIMESTRIEL</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <v>BIMESTRE</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <v>TRIMESTRIEL</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>TRIMESTRE</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <v>SEMESTRIEL</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <v>SEMESTRE</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <v>ANNUEL</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <v>ANNEE</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <v>AUTRE</v>
       </c>
     </row>

--- a/backend/fixtures/code.xlsx
+++ b/backend/fixtures/code.xlsx
@@ -2303,7 +2303,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2364,24 +2364,10 @@
         <v>LUNDI DE PAQUES</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>19/09/2012</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Mercredi</v>
-      </c>
-      <c r="D5" t="str">
-        <v>FERIE</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/backend/fixtures/code.xlsx
+++ b/backend/fixtures/code.xlsx
@@ -2213,7 +2213,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2226,18 +2226,10 @@
         <v>libelle</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>MED</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2261,25 +2253,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="str">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>LF</v>
+        <v>BP</v>
       </c>
       <c r="C2" t="str">
-        <v>Loi de Finances</v>
+        <v>Budgets Primitifs</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="str">
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>LFR</v>
+        <v>BA</v>
       </c>
       <c r="C3" t="str">
-        <v>Loi de Finances Rectificatives</v>
+        <v>Budgets Additionnels</v>
       </c>
     </row>
     <row r="4">
